--- a/FilBCS Monthly Invoicing.xlsx
+++ b/FilBCS Monthly Invoicing.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Feb" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Copy" sheetId="6" r:id="rId2"/>
+    <sheet name="Invoice ClientIds" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="478">
   <si>
     <t>Surname</t>
   </si>
@@ -1002,6 +1003,453 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>Abbie Guanco</t>
+  </si>
+  <si>
+    <t>0410 636409</t>
+  </si>
+  <si>
+    <t>Al Saulon</t>
+  </si>
+  <si>
+    <t>0404 213 088</t>
+  </si>
+  <si>
+    <t>Alden Peregrino</t>
+  </si>
+  <si>
+    <t>0404 590100</t>
+  </si>
+  <si>
+    <t>Allan Puente</t>
+  </si>
+  <si>
+    <t>0439 499270</t>
+  </si>
+  <si>
+    <t>Bong Pilapil</t>
+  </si>
+  <si>
+    <t>0424 335518</t>
+  </si>
+  <si>
+    <t>Bonnie Javier</t>
+  </si>
+  <si>
+    <t>0410 405547</t>
+  </si>
+  <si>
+    <t>Chris Yatco</t>
+  </si>
+  <si>
+    <t>0403 749529</t>
+  </si>
+  <si>
+    <t>Dar Adriano</t>
+  </si>
+  <si>
+    <t>0425 203 185</t>
+  </si>
+  <si>
+    <t>Ding Vega</t>
+  </si>
+  <si>
+    <t>0402 453794</t>
+  </si>
+  <si>
+    <t>Efren Guiwo</t>
+  </si>
+  <si>
+    <t>0437 913708</t>
+  </si>
+  <si>
+    <t>Ferdie Say</t>
+  </si>
+  <si>
+    <t>0411 132 499</t>
+  </si>
+  <si>
+    <t>Gloria Araullo</t>
+  </si>
+  <si>
+    <t>0416 273 045</t>
+  </si>
+  <si>
+    <t>Ian Fernandez</t>
+  </si>
+  <si>
+    <t>0417 536 839</t>
+  </si>
+  <si>
+    <t>Jon Perez</t>
+  </si>
+  <si>
+    <t>0431 010656</t>
+  </si>
+  <si>
+    <t>Jonathan De Guzman</t>
+  </si>
+  <si>
+    <t>0422 255492</t>
+  </si>
+  <si>
+    <t>Jun Rey</t>
+  </si>
+  <si>
+    <t>0418 886 069</t>
+  </si>
+  <si>
+    <t>Kim Eata - Castaneda</t>
+  </si>
+  <si>
+    <t>0430 281640</t>
+  </si>
+  <si>
+    <t>Lorraine Nacua</t>
+  </si>
+  <si>
+    <t>0425 189 944</t>
+  </si>
+  <si>
+    <t>Manny Salac</t>
+  </si>
+  <si>
+    <t>0425 208 880</t>
+  </si>
+  <si>
+    <t>Marianne Rillera</t>
+  </si>
+  <si>
+    <t>0415 591651</t>
+  </si>
+  <si>
+    <t>Mark Dasco</t>
+  </si>
+  <si>
+    <t>0414 930826</t>
+  </si>
+  <si>
+    <t>Marvin Araullo</t>
+  </si>
+  <si>
+    <t>0410 284 843</t>
+  </si>
+  <si>
+    <t>Mel Constantine</t>
+  </si>
+  <si>
+    <t>0433 538602</t>
+  </si>
+  <si>
+    <t>Mike Avellana</t>
+  </si>
+  <si>
+    <t>0406 962 442</t>
+  </si>
+  <si>
+    <t>Mj Galang</t>
+  </si>
+  <si>
+    <t>0410 936554</t>
+  </si>
+  <si>
+    <t>Nick Real</t>
+  </si>
+  <si>
+    <t>0442 539647</t>
+  </si>
+  <si>
+    <t>Norman Rimando</t>
+  </si>
+  <si>
+    <t>0401 084844</t>
+  </si>
+  <si>
+    <t>Paolo Triunfante</t>
+  </si>
+  <si>
+    <t>0416 371515</t>
+  </si>
+  <si>
+    <t>Rachelle Arroyo</t>
+  </si>
+  <si>
+    <t>0449 069 755</t>
+  </si>
+  <si>
+    <t>Reggie Natividad</t>
+  </si>
+  <si>
+    <t>0406 101 025</t>
+  </si>
+  <si>
+    <t>Reiner Nalzaro</t>
+  </si>
+  <si>
+    <t>0407 507063</t>
+  </si>
+  <si>
+    <t>Ruel Beralde</t>
+  </si>
+  <si>
+    <t>0416 857201</t>
+  </si>
+  <si>
+    <t>Ruth Almazan</t>
+  </si>
+  <si>
+    <t>0416 160 905</t>
+  </si>
+  <si>
+    <t>Sal Narvaiza</t>
+  </si>
+  <si>
+    <t>0409 043 763</t>
+  </si>
+  <si>
+    <t>Terry Pangilinan</t>
+  </si>
+  <si>
+    <t>0423 359700</t>
+  </si>
+  <si>
+    <t>Tess Macaraeg</t>
+  </si>
+  <si>
+    <t>0404 488 274</t>
+  </si>
+  <si>
+    <t>Tina Castillo</t>
+  </si>
+  <si>
+    <t>0415 369232</t>
+  </si>
+  <si>
+    <t>West Cruz </t>
+  </si>
+  <si>
+    <t>0466 300 824</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Unit 4 131 Douglas Rd.</t>
+  </si>
+  <si>
+    <t>Doonside</t>
+  </si>
+  <si>
+    <t>11 Conrad Road</t>
+  </si>
+  <si>
+    <t>The Ponds</t>
+  </si>
+  <si>
+    <t>181/105 Bridge Rd</t>
+  </si>
+  <si>
+    <t>Westmead</t>
+  </si>
+  <si>
+    <t>303/140 Church St</t>
+  </si>
+  <si>
+    <t>Parramatta</t>
+  </si>
+  <si>
+    <t>8/102 Alfred St Rosehill</t>
+  </si>
+  <si>
+    <t>Rosehill</t>
+  </si>
+  <si>
+    <t>13 Booth Close</t>
+  </si>
+  <si>
+    <t>Fairfield West</t>
+  </si>
+  <si>
+    <t>22 Warrell Ct</t>
+  </si>
+  <si>
+    <t>Rooty Hill</t>
+  </si>
+  <si>
+    <t>A80 Station St.</t>
+  </si>
+  <si>
+    <t>Wentworthville</t>
+  </si>
+  <si>
+    <t>38 Edengrove Court</t>
+  </si>
+  <si>
+    <t>31 Pottery Circ</t>
+  </si>
+  <si>
+    <t>Woodcroft</t>
+  </si>
+  <si>
+    <t>11 Casuarina Place</t>
+  </si>
+  <si>
+    <t>Acacia Gardens</t>
+  </si>
+  <si>
+    <t>75 Manorhouse Blvd.</t>
+  </si>
+  <si>
+    <t>Quakers Hill</t>
+  </si>
+  <si>
+    <t>1 Gum Leaf Cl</t>
+  </si>
+  <si>
+    <t>Hornsby Heights</t>
+  </si>
+  <si>
+    <t>11 Ambrose St.</t>
+  </si>
+  <si>
+    <t>Glendenning</t>
+  </si>
+  <si>
+    <t>5 Cini Pl</t>
+  </si>
+  <si>
+    <t>166 Jillak Cl.</t>
+  </si>
+  <si>
+    <t>Glenmore Park</t>
+  </si>
+  <si>
+    <t>37 Azalea St.</t>
+  </si>
+  <si>
+    <t>Greystanes</t>
+  </si>
+  <si>
+    <t>2 Wallaby Cl.</t>
+  </si>
+  <si>
+    <t>Blacktown</t>
+  </si>
+  <si>
+    <t>40 Shoreline Drive</t>
+  </si>
+  <si>
+    <t>Rhodes</t>
+  </si>
+  <si>
+    <t>1/275 Blaxland Rd.</t>
+  </si>
+  <si>
+    <t>Ryde</t>
+  </si>
+  <si>
+    <t>11 Robinia Ave.</t>
+  </si>
+  <si>
+    <t>Fairfield East</t>
+  </si>
+  <si>
+    <t>41 Saphire Cct</t>
+  </si>
+  <si>
+    <t>20 Primrose St.</t>
+  </si>
+  <si>
+    <t>4 Cleveland Cl</t>
+  </si>
+  <si>
+    <t>Rouse Hill</t>
+  </si>
+  <si>
+    <t>7 Goldfinch Crescent</t>
+  </si>
+  <si>
+    <t>Bella Vista</t>
+  </si>
+  <si>
+    <t>94 Greenview Parade</t>
+  </si>
+  <si>
+    <t>8 / 63 Underwood Rd</t>
+  </si>
+  <si>
+    <t>Homebush</t>
+  </si>
+  <si>
+    <t>6 Bianca Pl</t>
+  </si>
+  <si>
+    <t>8 Alverna Pl</t>
+  </si>
+  <si>
+    <t>17A Pembroke St</t>
+  </si>
+  <si>
+    <t>24/139-143 Waterloo Rd</t>
+  </si>
+  <si>
+    <t>Greenacre</t>
+  </si>
+  <si>
+    <t>64 Maud St.</t>
+  </si>
+  <si>
+    <t>Fairfield</t>
+  </si>
+  <si>
+    <t>53 Amsterdam street</t>
+  </si>
+  <si>
+    <t>Oakhurst</t>
+  </si>
+  <si>
+    <t>6/25-27 Fourth Ave.</t>
+  </si>
+  <si>
+    <t>33 Penn Cres</t>
+  </si>
+  <si>
+    <t>44 Eddy St.</t>
+  </si>
+  <si>
+    <t>Thornleigh</t>
+  </si>
+  <si>
+    <t>69 Stonecutters Dr</t>
+  </si>
+  <si>
+    <t>Colebee</t>
+  </si>
+  <si>
+    <t>32A Perrin Ave</t>
+  </si>
+  <si>
+    <t>Plumpton</t>
   </si>
 </sst>
 </file>
@@ -1036,12 +1484,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -1109,7 +1569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1125,20 +1585,29 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1435,22 +1904,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:J189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I189" sqref="H1:I189"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" customHeight="1">
+    <row r="1" spans="1:10" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>326</v>
       </c>
@@ -1464,19 +1933,22 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1">
+    <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1487,23 +1959,27 @@
         <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+        <f>VLOOKUP(C2,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
       <c r="G2">
-        <v>27</v>
-      </c>
-      <c r="I2" s="4">
-        <f>F2*G2</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>27</v>
+      </c>
+      <c r="J2" s="4">
+        <f>G2*H2</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1514,23 +1990,27 @@
         <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <f>VLOOKUP(C3,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>40</v>
-      </c>
-      <c r="I3" s="4">
-        <f t="shared" ref="I3:I66" si="0">F3*G3</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J66" si="0">G3*H3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" customHeight="1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1541,23 +2021,27 @@
         <v>8</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+        <f>VLOOKUP(C4,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1">
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1568,23 +2052,27 @@
         <v>14</v>
       </c>
       <c r="D5" s="1">
+        <f>VLOOKUP(C5,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>27</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="H5">
+        <v>27</v>
+      </c>
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1595,23 +2083,27 @@
         <v>14</v>
       </c>
       <c r="D6" s="1">
+        <f>VLOOKUP(C6,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6">
-        <v>40</v>
-      </c>
-      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1622,23 +2114,27 @@
         <v>14</v>
       </c>
       <c r="D7" s="1">
+        <f>VLOOKUP(C7,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
-        <v>30</v>
-      </c>
-      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1649,23 +2145,27 @@
         <v>14</v>
       </c>
       <c r="D8" s="1">
+        <f>VLOOKUP(C8,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>27</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="H8">
+        <v>27</v>
+      </c>
+      <c r="J8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1676,23 +2176,27 @@
         <v>14</v>
       </c>
       <c r="D9" s="1">
+        <f>VLOOKUP(C9,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="G9">
-        <v>40</v>
-      </c>
-      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>40</v>
+      </c>
+      <c r="J9" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1">
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1703,23 +2207,27 @@
         <v>14</v>
       </c>
       <c r="D10" s="1">
+        <f>VLOOKUP(C10,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
-        <v>30</v>
-      </c>
-      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1">
+    <row r="11" spans="1:10" ht="12.75" customHeight="1">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1730,23 +2238,27 @@
         <v>24</v>
       </c>
       <c r="D11" s="1">
+        <f>VLOOKUP(C11,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
-        <v>27</v>
-      </c>
-      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>27</v>
+      </c>
+      <c r="J11" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1">
+    <row r="12" spans="1:10" ht="12.75" customHeight="1">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1757,23 +2269,27 @@
         <v>24</v>
       </c>
       <c r="D12" s="1">
+        <f>VLOOKUP(C12,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>26</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="G12">
-        <v>40</v>
-      </c>
-      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="J12" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1">
+    <row r="13" spans="1:10" ht="12.75" customHeight="1">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1784,23 +2300,27 @@
         <v>24</v>
       </c>
       <c r="D13" s="1">
+        <f>VLOOKUP(C13,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
       </c>
       <c r="G13">
-        <v>30</v>
-      </c>
-      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="J13" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1">
+    <row r="14" spans="1:10" ht="12.75" customHeight="1">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1811,23 +2331,27 @@
         <v>30</v>
       </c>
       <c r="D14" s="1">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
+        <f>VLOOKUP(C14,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
       <c r="G14">
-        <v>27</v>
-      </c>
-      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>27</v>
+      </c>
+      <c r="J14" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1838,23 +2362,27 @@
         <v>30</v>
       </c>
       <c r="D15" s="1">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
+        <f>VLOOKUP(C15,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="F15">
-        <v>1</v>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
       </c>
       <c r="G15">
-        <v>40</v>
-      </c>
-      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>40</v>
+      </c>
+      <c r="J15" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1">
+    <row r="16" spans="1:10" ht="12.75" customHeight="1">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1865,23 +2393,27 @@
         <v>30</v>
       </c>
       <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
+        <f>VLOOKUP(C16,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
         <v>33</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
       <c r="G16">
-        <v>30</v>
-      </c>
-      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="J16" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1">
+    <row r="17" spans="1:10" ht="12.75" customHeight="1">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1892,23 +2424,27 @@
         <v>36</v>
       </c>
       <c r="D17" s="1">
+        <f>VLOOKUP(C17,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
         <v>37</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
       <c r="G17">
-        <v>27</v>
-      </c>
-      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>27</v>
+      </c>
+      <c r="J17" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1">
+    <row r="18" spans="1:10" ht="12.75" customHeight="1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1919,23 +2455,27 @@
         <v>36</v>
       </c>
       <c r="D18" s="1">
+        <f>VLOOKUP(C18,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
         <v>38</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
       <c r="G18">
-        <v>40</v>
-      </c>
-      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>40</v>
+      </c>
+      <c r="J18" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1">
+    <row r="19" spans="1:10" ht="12.75" customHeight="1">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1946,23 +2486,27 @@
         <v>36</v>
       </c>
       <c r="D19" s="1">
+        <f>VLOOKUP(C19,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
         <v>39</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
       <c r="G19">
-        <v>30</v>
-      </c>
-      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="J19" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1">
+    <row r="20" spans="1:10" ht="12.75" customHeight="1">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1973,23 +2517,27 @@
         <v>42</v>
       </c>
       <c r="D20" s="1">
+        <f>VLOOKUP(C20,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
         <v>43</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
       <c r="G20">
-        <v>27</v>
-      </c>
-      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>27</v>
+      </c>
+      <c r="J20" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="12.75" customHeight="1">
+    <row r="21" spans="1:10" ht="12.75" customHeight="1">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2000,23 +2548,27 @@
         <v>42</v>
       </c>
       <c r="D21" s="1">
+        <f>VLOOKUP(C21,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
         <v>44</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
       <c r="G21">
-        <v>40</v>
-      </c>
-      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>40</v>
+      </c>
+      <c r="J21" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="12.75" customHeight="1">
+    <row r="22" spans="1:10" ht="12.75" customHeight="1">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2027,23 +2579,27 @@
         <v>42</v>
       </c>
       <c r="D22" s="1">
+        <f>VLOOKUP(C22,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
         <v>45</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
       <c r="G22">
-        <v>30</v>
-      </c>
-      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="J22" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12.75" customHeight="1">
+    <row r="23" spans="1:10" ht="12.75" customHeight="1">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2054,23 +2610,27 @@
         <v>42</v>
       </c>
       <c r="D23" s="1">
+        <f>VLOOKUP(C23,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
         <v>47</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
       <c r="G23">
-        <v>27</v>
-      </c>
-      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>27</v>
+      </c>
+      <c r="J23" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1">
+    <row r="24" spans="1:10" ht="12.75" customHeight="1">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2081,23 +2641,27 @@
         <v>42</v>
       </c>
       <c r="D24" s="1">
+        <f>VLOOKUP(C24,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>48</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
       <c r="G24">
-        <v>40</v>
-      </c>
-      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>40</v>
+      </c>
+      <c r="J24" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1">
+    <row r="25" spans="1:10" ht="12.75" customHeight="1">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2108,23 +2672,27 @@
         <v>42</v>
       </c>
       <c r="D25" s="1">
+        <f>VLOOKUP(C25,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
       <c r="G25">
-        <v>30</v>
-      </c>
-      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="J25" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="12.75" customHeight="1">
+    <row r="26" spans="1:10" ht="12.75" customHeight="1">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2135,23 +2703,27 @@
         <v>52</v>
       </c>
       <c r="D26" s="1">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
+        <f>VLOOKUP(C26,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="E26" s="1">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
         <v>53</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0</v>
       </c>
-      <c r="G26">
-        <v>27</v>
-      </c>
-      <c r="I26" s="4">
+      <c r="H26">
+        <v>27</v>
+      </c>
+      <c r="J26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="12.75" customHeight="1">
+    <row r="27" spans="1:10" ht="12.75" customHeight="1">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2162,23 +2734,27 @@
         <v>52</v>
       </c>
       <c r="D27" s="1">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
+        <f>VLOOKUP(C27,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="E27" s="1">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
         <v>54</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
       <c r="G27">
-        <v>40</v>
-      </c>
-      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>40</v>
+      </c>
+      <c r="J27" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="12.75" customHeight="1">
+    <row r="28" spans="1:10" ht="12.75" customHeight="1">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -2189,23 +2765,27 @@
         <v>52</v>
       </c>
       <c r="D28" s="1">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
+        <f>VLOOKUP(C28,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="E28" s="1">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
       <c r="G28">
-        <v>30</v>
-      </c>
-      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="J28" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12.75" customHeight="1">
+    <row r="29" spans="1:10" ht="12.75" customHeight="1">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2216,23 +2796,27 @@
         <v>52</v>
       </c>
       <c r="D29" s="1">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
+        <f>VLOOKUP(C29,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="E29" s="1">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0</v>
       </c>
-      <c r="G29">
-        <v>27</v>
-      </c>
-      <c r="I29" s="4">
+      <c r="H29">
+        <v>27</v>
+      </c>
+      <c r="J29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12.75" customHeight="1">
+    <row r="30" spans="1:10" ht="12.75" customHeight="1">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -2243,23 +2827,27 @@
         <v>52</v>
       </c>
       <c r="D30" s="1">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
+        <f>VLOOKUP(C30,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="E30" s="1">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
         <v>58</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
       <c r="G30">
-        <v>40</v>
-      </c>
-      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>40</v>
+      </c>
+      <c r="J30" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="12.75" customHeight="1">
+    <row r="31" spans="1:10" ht="12.75" customHeight="1">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -2270,23 +2858,27 @@
         <v>52</v>
       </c>
       <c r="D31" s="1">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
+        <f>VLOOKUP(C31,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="E31" s="1">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
       <c r="G31">
-        <v>30</v>
-      </c>
-      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="J31" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="12.75" customHeight="1">
+    <row r="32" spans="1:10" ht="12.75" customHeight="1">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2297,23 +2889,27 @@
         <v>62</v>
       </c>
       <c r="D32" s="1">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
+        <f>VLOOKUP(C32,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
       <c r="G32">
-        <v>27</v>
-      </c>
-      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>27</v>
+      </c>
+      <c r="J32" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.75" customHeight="1">
+    <row r="33" spans="1:10" ht="12.75" customHeight="1">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -2324,23 +2920,27 @@
         <v>62</v>
       </c>
       <c r="D33" s="1">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
+        <f>VLOOKUP(C33,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="E33" s="1">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
         <v>64</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
       <c r="G33">
-        <v>40</v>
-      </c>
-      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>40</v>
+      </c>
+      <c r="J33" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.75" customHeight="1">
+    <row r="34" spans="1:10" ht="12.75" customHeight="1">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -2351,23 +2951,27 @@
         <v>62</v>
       </c>
       <c r="D34" s="1">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
+        <f>VLOOKUP(C34,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
       <c r="G34">
-        <v>30</v>
-      </c>
-      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="J34" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.75" customHeight="1">
+    <row r="35" spans="1:10" ht="12.75" customHeight="1">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -2378,23 +2982,27 @@
         <v>68</v>
       </c>
       <c r="D35" s="1">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s">
+        <f>VLOOKUP(C35,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E35" s="1">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0</v>
       </c>
-      <c r="G35">
-        <v>27</v>
-      </c>
-      <c r="I35" s="4">
+      <c r="H35">
+        <v>27</v>
+      </c>
+      <c r="J35" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.75" customHeight="1">
+    <row r="36" spans="1:10" ht="12.75" customHeight="1">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -2405,23 +3013,27 @@
         <v>68</v>
       </c>
       <c r="D36" s="1">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
+        <f>VLOOKUP(C36,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
         <v>70</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
       <c r="G36">
-        <v>40</v>
-      </c>
-      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>40</v>
+      </c>
+      <c r="J36" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="12.75" customHeight="1">
+    <row r="37" spans="1:10" ht="12.75" customHeight="1">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -2432,23 +3044,27 @@
         <v>68</v>
       </c>
       <c r="D37" s="1">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s">
+        <f>VLOOKUP(C37,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E37" s="1">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
       <c r="G37">
-        <v>30</v>
-      </c>
-      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+      <c r="J37" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="12.75" customHeight="1">
+    <row r="38" spans="1:10" ht="12.75" customHeight="1">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -2459,23 +3075,27 @@
         <v>68</v>
       </c>
       <c r="D38" s="1">
-        <v>9</v>
-      </c>
-      <c r="E38" t="s">
+        <f>VLOOKUP(C38,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E38" s="1">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0</v>
       </c>
-      <c r="G38">
-        <v>27</v>
-      </c>
-      <c r="I38" s="4">
+      <c r="H38">
+        <v>27</v>
+      </c>
+      <c r="J38" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="12.75" customHeight="1">
+    <row r="39" spans="1:10" ht="12.75" customHeight="1">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -2486,23 +3106,27 @@
         <v>68</v>
       </c>
       <c r="D39" s="1">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
+        <f>VLOOKUP(C39,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
         <v>74</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
       <c r="G39">
-        <v>40</v>
-      </c>
-      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>40</v>
+      </c>
+      <c r="J39" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="12.75" customHeight="1">
+    <row r="40" spans="1:10" ht="12.75" customHeight="1">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -2513,23 +3137,27 @@
         <v>68</v>
       </c>
       <c r="D40" s="1">
-        <v>9</v>
-      </c>
-      <c r="E40" t="s">
+        <f>VLOOKUP(C40,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E40" s="1">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
       <c r="G40">
-        <v>30</v>
-      </c>
-      <c r="I40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="J40" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="12.75" customHeight="1">
+    <row r="41" spans="1:10" ht="12.75" customHeight="1">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -2540,23 +3168,27 @@
         <v>68</v>
       </c>
       <c r="D41" s="1">
-        <v>9</v>
-      </c>
-      <c r="E41" t="s">
+        <f>VLOOKUP(C41,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E41" s="1">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0</v>
       </c>
-      <c r="G41">
-        <v>27</v>
-      </c>
-      <c r="I41" s="4">
+      <c r="H41">
+        <v>27</v>
+      </c>
+      <c r="J41" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="12.75" customHeight="1">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -2567,23 +3199,27 @@
         <v>68</v>
       </c>
       <c r="D42" s="1">
-        <v>9</v>
-      </c>
-      <c r="E42" t="s">
+        <f>VLOOKUP(C42,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E42" s="1">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
         <v>78</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
       <c r="G42">
-        <v>40</v>
-      </c>
-      <c r="I42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>40</v>
+      </c>
+      <c r="J42" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="12.75" customHeight="1">
+    <row r="43" spans="1:10" ht="12.75" customHeight="1">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -2594,23 +3230,27 @@
         <v>68</v>
       </c>
       <c r="D43" s="1">
-        <v>9</v>
-      </c>
-      <c r="E43" t="s">
+        <f>VLOOKUP(C43,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E43" s="1">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
         <v>79</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
       <c r="G43">
-        <v>30</v>
-      </c>
-      <c r="I43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="J43" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="12.75" customHeight="1">
+    <row r="44" spans="1:10" ht="12.75" customHeight="1">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -2621,23 +3261,27 @@
         <v>68</v>
       </c>
       <c r="D44" s="1">
-        <v>9</v>
-      </c>
-      <c r="E44" t="s">
+        <f>VLOOKUP(C44,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E44" s="1">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
         <v>81</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0</v>
       </c>
-      <c r="G44">
-        <v>27</v>
-      </c>
-      <c r="I44" s="4">
+      <c r="H44">
+        <v>27</v>
+      </c>
+      <c r="J44" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="12.75" customHeight="1">
+    <row r="45" spans="1:10" ht="12.75" customHeight="1">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -2648,23 +3292,27 @@
         <v>68</v>
       </c>
       <c r="D45" s="1">
-        <v>9</v>
-      </c>
-      <c r="E45" t="s">
+        <f>VLOOKUP(C45,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E45" s="1">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
         <v>82</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
       <c r="G45">
-        <v>40</v>
-      </c>
-      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>40</v>
+      </c>
+      <c r="J45" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="12.75" customHeight="1">
+    <row r="46" spans="1:10" ht="12.75" customHeight="1">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -2675,23 +3323,27 @@
         <v>68</v>
       </c>
       <c r="D46" s="1">
-        <v>9</v>
-      </c>
-      <c r="E46" t="s">
+        <f>VLOOKUP(C46,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E46" s="1">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
         <v>83</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
       <c r="G46">
-        <v>30</v>
-      </c>
-      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>30</v>
+      </c>
+      <c r="J46" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="12.75" customHeight="1">
+    <row r="47" spans="1:10" ht="12.75" customHeight="1">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -2702,23 +3354,27 @@
         <v>86</v>
       </c>
       <c r="D47" s="1">
-        <v>10</v>
-      </c>
-      <c r="E47" t="s">
+        <f>VLOOKUP(C47,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="E47" s="1">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
         <v>87</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>0</v>
       </c>
-      <c r="G47">
-        <v>27</v>
-      </c>
-      <c r="I47" s="4">
+      <c r="H47">
+        <v>27</v>
+      </c>
+      <c r="J47" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="12.75" customHeight="1">
+    <row r="48" spans="1:10" ht="12.75" customHeight="1">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -2729,23 +3385,27 @@
         <v>86</v>
       </c>
       <c r="D48" s="1">
-        <v>10</v>
-      </c>
-      <c r="E48" t="s">
+        <f>VLOOKUP(C48,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="E48" s="1">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
         <v>88</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
       <c r="G48">
-        <v>40</v>
-      </c>
-      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>40</v>
+      </c>
+      <c r="J48" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="12.75" customHeight="1">
+    <row r="49" spans="1:10" ht="12.75" customHeight="1">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -2756,23 +3416,27 @@
         <v>86</v>
       </c>
       <c r="D49" s="1">
-        <v>10</v>
-      </c>
-      <c r="E49" t="s">
+        <f>VLOOKUP(C49,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="E49" s="1">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
         <v>89</v>
       </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
       <c r="G49">
-        <v>30</v>
-      </c>
-      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>30</v>
+      </c>
+      <c r="J49" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="12.75" customHeight="1">
+    <row r="50" spans="1:10" ht="12.75" customHeight="1">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -2783,23 +3447,27 @@
         <v>92</v>
       </c>
       <c r="D50" s="1">
-        <v>11</v>
-      </c>
-      <c r="E50" t="s">
+        <f>VLOOKUP(C50,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="E50" s="1">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
         <v>93</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
       <c r="G50">
-        <v>27</v>
-      </c>
-      <c r="I50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>27</v>
+      </c>
+      <c r="J50" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="12.75" customHeight="1">
+    <row r="51" spans="1:10" ht="12.75" customHeight="1">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -2810,23 +3478,27 @@
         <v>92</v>
       </c>
       <c r="D51" s="1">
-        <v>11</v>
-      </c>
-      <c r="E51" t="s">
+        <f>VLOOKUP(C51,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="E51" s="1">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
         <v>94</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
       <c r="G51">
-        <v>40</v>
-      </c>
-      <c r="I51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>40</v>
+      </c>
+      <c r="J51" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="12.75" customHeight="1">
+    <row r="52" spans="1:10" ht="12.75" customHeight="1">
       <c r="A52" t="s">
         <v>90</v>
       </c>
@@ -2837,23 +3509,27 @@
         <v>92</v>
       </c>
       <c r="D52" s="1">
-        <v>11</v>
-      </c>
-      <c r="E52" t="s">
+        <f>VLOOKUP(C52,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="E52" s="1">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
         <v>95</v>
       </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
       <c r="G52">
-        <v>30</v>
-      </c>
-      <c r="I52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>30</v>
+      </c>
+      <c r="J52" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="12.75" customHeight="1">
+    <row r="53" spans="1:10" ht="12.75" customHeight="1">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -2864,23 +3540,27 @@
         <v>98</v>
       </c>
       <c r="D53" s="1">
-        <v>12</v>
-      </c>
-      <c r="E53" t="s">
+        <f>VLOOKUP(C53,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E53" s="1">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
         <v>99</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>0</v>
       </c>
-      <c r="G53">
-        <v>27</v>
-      </c>
-      <c r="I53" s="4">
+      <c r="H53">
+        <v>27</v>
+      </c>
+      <c r="J53" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="12.75" customHeight="1">
+    <row r="54" spans="1:10" ht="12.75" customHeight="1">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -2891,23 +3571,27 @@
         <v>98</v>
       </c>
       <c r="D54" s="1">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s">
+        <f>VLOOKUP(C54,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E54" s="1">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
         <v>100</v>
       </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
       <c r="G54">
-        <v>40</v>
-      </c>
-      <c r="I54" s="4">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>40</v>
+      </c>
+      <c r="J54" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="12.75" customHeight="1">
+    <row r="55" spans="1:10" ht="12.75" customHeight="1">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -2918,23 +3602,27 @@
         <v>98</v>
       </c>
       <c r="D55" s="1">
-        <v>12</v>
-      </c>
-      <c r="E55" t="s">
+        <f>VLOOKUP(C55,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E55" s="1">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
         <v>101</v>
       </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
       <c r="G55">
-        <v>30</v>
-      </c>
-      <c r="I55" s="4">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>30</v>
+      </c>
+      <c r="J55" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="12.75" customHeight="1">
+    <row r="56" spans="1:10" ht="12.75" customHeight="1">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2945,23 +3633,27 @@
         <v>98</v>
       </c>
       <c r="D56" s="1">
-        <v>12</v>
-      </c>
-      <c r="E56" t="s">
+        <f>VLOOKUP(C56,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E56" s="1">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
         <v>103</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>0</v>
       </c>
-      <c r="G56">
-        <v>27</v>
-      </c>
-      <c r="I56" s="4">
+      <c r="H56">
+        <v>27</v>
+      </c>
+      <c r="J56" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="12.75" customHeight="1">
+    <row r="57" spans="1:10" ht="12.75" customHeight="1">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -2972,23 +3664,27 @@
         <v>98</v>
       </c>
       <c r="D57" s="1">
-        <v>12</v>
-      </c>
-      <c r="E57" t="s">
+        <f>VLOOKUP(C57,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E57" s="1">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
         <v>104</v>
       </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
       <c r="G57">
-        <v>40</v>
-      </c>
-      <c r="I57" s="4">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>40</v>
+      </c>
+      <c r="J57" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="12.75" customHeight="1">
+    <row r="58" spans="1:10" ht="12.75" customHeight="1">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -2999,23 +3695,27 @@
         <v>98</v>
       </c>
       <c r="D58" s="1">
-        <v>12</v>
-      </c>
-      <c r="E58" t="s">
+        <f>VLOOKUP(C58,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E58" s="1">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
         <v>105</v>
       </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
       <c r="G58">
-        <v>30</v>
-      </c>
-      <c r="I58" s="4">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>30</v>
+      </c>
+      <c r="J58" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="12.75" customHeight="1">
+    <row r="59" spans="1:10" ht="12.75" customHeight="1">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -3026,23 +3726,27 @@
         <v>108</v>
       </c>
       <c r="D59" s="1">
-        <v>13</v>
-      </c>
-      <c r="E59" t="s">
+        <f>VLOOKUP(C59,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E59" s="1">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
         <v>109</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
       <c r="G59">
-        <v>27</v>
-      </c>
-      <c r="I59" s="4">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>27</v>
+      </c>
+      <c r="J59" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="12.75" customHeight="1">
+    <row r="60" spans="1:10" ht="12.75" customHeight="1">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -3053,23 +3757,27 @@
         <v>108</v>
       </c>
       <c r="D60" s="1">
-        <v>13</v>
-      </c>
-      <c r="E60" t="s">
+        <f>VLOOKUP(C60,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E60" s="1">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
         <v>110</v>
       </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
       <c r="G60">
-        <v>40</v>
-      </c>
-      <c r="I60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>40</v>
+      </c>
+      <c r="J60" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="12.75" customHeight="1">
+    <row r="61" spans="1:10" ht="12.75" customHeight="1">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -3080,23 +3788,27 @@
         <v>108</v>
       </c>
       <c r="D61" s="1">
-        <v>13</v>
-      </c>
-      <c r="E61" t="s">
+        <f>VLOOKUP(C61,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="E61" s="1">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
         <v>111</v>
       </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
       <c r="G61">
-        <v>30</v>
-      </c>
-      <c r="I61" s="4">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>30</v>
+      </c>
+      <c r="J61" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="12.75" customHeight="1">
+    <row r="62" spans="1:10" ht="12.75" customHeight="1">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -3107,23 +3819,27 @@
         <v>114</v>
       </c>
       <c r="D62" s="1">
-        <v>14</v>
-      </c>
-      <c r="E62" t="s">
+        <f>VLOOKUP(C62,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E62" s="1">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
         <v>115</v>
       </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
       <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
         <v>15</v>
       </c>
-      <c r="I62" s="4">
+      <c r="J62" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="12.75" customHeight="1">
+    <row r="63" spans="1:10" ht="12.75" customHeight="1">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -3134,23 +3850,27 @@
         <v>114</v>
       </c>
       <c r="D63" s="1">
-        <v>14</v>
-      </c>
-      <c r="E63" t="s">
+        <f>VLOOKUP(C63,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E63" s="1">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
         <v>116</v>
       </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
       <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
         <v>20</v>
       </c>
-      <c r="I63" s="4">
+      <c r="J63" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="12.75" customHeight="1">
+    <row r="64" spans="1:10" ht="12.75" customHeight="1">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -3161,23 +3881,27 @@
         <v>114</v>
       </c>
       <c r="D64" s="1">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s">
+        <f>VLOOKUP(C64,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E64" s="1">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
         <v>117</v>
       </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
       <c r="G64">
-        <v>30</v>
-      </c>
-      <c r="I64" s="4">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>30</v>
+      </c>
+      <c r="J64" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="12.75" customHeight="1">
+    <row r="65" spans="1:10" ht="12.75" customHeight="1">
       <c r="A65" t="s">
         <v>118</v>
       </c>
@@ -3188,23 +3912,27 @@
         <v>114</v>
       </c>
       <c r="D65" s="1">
-        <v>14</v>
-      </c>
-      <c r="E65" t="s">
+        <f>VLOOKUP(C65,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E65" s="1">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
         <v>119</v>
       </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
       <c r="G65">
-        <v>27</v>
-      </c>
-      <c r="I65" s="4">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>27</v>
+      </c>
+      <c r="J65" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="12.75" customHeight="1">
+    <row r="66" spans="1:10" ht="12.75" customHeight="1">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -3215,23 +3943,27 @@
         <v>114</v>
       </c>
       <c r="D66" s="1">
-        <v>14</v>
-      </c>
-      <c r="E66" t="s">
+        <f>VLOOKUP(C66,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E66" s="1">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
         <v>120</v>
       </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
       <c r="G66">
-        <v>40</v>
-      </c>
-      <c r="I66" s="4">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>40</v>
+      </c>
+      <c r="J66" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="12.75" customHeight="1">
+    <row r="67" spans="1:10" ht="12.75" customHeight="1">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -3242,23 +3974,27 @@
         <v>114</v>
       </c>
       <c r="D67" s="1">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
+        <f>VLOOKUP(C67,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E67" s="1">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
         <v>121</v>
       </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
       <c r="G67">
-        <v>30</v>
-      </c>
-      <c r="I67" s="4">
-        <f t="shared" ref="I67:I130" si="1">F67*G67</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>30</v>
+      </c>
+      <c r="J67" s="4">
+        <f t="shared" ref="J67:J130" si="1">G67*H67</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="12.75" customHeight="1">
       <c r="A68" t="s">
         <v>122</v>
       </c>
@@ -3269,23 +4005,27 @@
         <v>114</v>
       </c>
       <c r="D68" s="1">
-        <v>14</v>
-      </c>
-      <c r="E68" t="s">
+        <f>VLOOKUP(C68,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E68" s="1">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
         <v>123</v>
       </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
       <c r="G68">
-        <v>27</v>
-      </c>
-      <c r="I68" s="4">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>27</v>
+      </c>
+      <c r="J68" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="12.75" customHeight="1">
+    <row r="69" spans="1:10" ht="12.75" customHeight="1">
       <c r="A69" t="s">
         <v>122</v>
       </c>
@@ -3296,23 +4036,27 @@
         <v>114</v>
       </c>
       <c r="D69" s="1">
-        <v>14</v>
-      </c>
-      <c r="E69" t="s">
+        <f>VLOOKUP(C69,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E69" s="1">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
         <v>124</v>
       </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
       <c r="G69">
-        <v>40</v>
-      </c>
-      <c r="I69" s="4">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>40</v>
+      </c>
+      <c r="J69" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="12.75" customHeight="1">
+    <row r="70" spans="1:10" ht="12.75" customHeight="1">
       <c r="A70" t="s">
         <v>122</v>
       </c>
@@ -3323,23 +4067,27 @@
         <v>114</v>
       </c>
       <c r="D70" s="1">
-        <v>14</v>
-      </c>
-      <c r="E70" t="s">
+        <f>VLOOKUP(C70,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E70" s="1">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
         <v>125</v>
       </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
       <c r="G70">
-        <v>30</v>
-      </c>
-      <c r="I70" s="4">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>30</v>
+      </c>
+      <c r="J70" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="12.75" customHeight="1">
+    <row r="71" spans="1:10" ht="12.75" customHeight="1">
       <c r="A71" t="s">
         <v>126</v>
       </c>
@@ -3350,23 +4098,27 @@
         <v>128</v>
       </c>
       <c r="D71" s="1">
-        <v>15</v>
-      </c>
-      <c r="E71" t="s">
+        <f>VLOOKUP(C71,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E71" s="1">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
         <v>129</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>0</v>
       </c>
-      <c r="G71">
-        <v>27</v>
-      </c>
-      <c r="I71" s="4">
+      <c r="H71">
+        <v>27</v>
+      </c>
+      <c r="J71" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="12.75" customHeight="1">
+    <row r="72" spans="1:10" ht="12.75" customHeight="1">
       <c r="A72" t="s">
         <v>126</v>
       </c>
@@ -3377,23 +4129,27 @@
         <v>128</v>
       </c>
       <c r="D72" s="1">
-        <v>15</v>
-      </c>
-      <c r="E72" t="s">
+        <f>VLOOKUP(C72,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E72" s="1">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
         <v>130</v>
       </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
       <c r="G72">
-        <v>40</v>
-      </c>
-      <c r="I72" s="4">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>40</v>
+      </c>
+      <c r="J72" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="12.75" customHeight="1">
+    <row r="73" spans="1:10" ht="12.75" customHeight="1">
       <c r="A73" t="s">
         <v>126</v>
       </c>
@@ -3404,23 +4160,27 @@
         <v>128</v>
       </c>
       <c r="D73" s="1">
-        <v>15</v>
-      </c>
-      <c r="E73" t="s">
+        <f>VLOOKUP(C73,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E73" s="1">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
         <v>131</v>
       </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
       <c r="G73">
-        <v>30</v>
-      </c>
-      <c r="I73" s="4">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>30</v>
+      </c>
+      <c r="J73" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="12.75" customHeight="1">
+    <row r="74" spans="1:10" ht="12.75" customHeight="1">
       <c r="A74" t="s">
         <v>132</v>
       </c>
@@ -3431,23 +4191,27 @@
         <v>134</v>
       </c>
       <c r="D74" s="1">
-        <v>16</v>
-      </c>
-      <c r="E74" t="s">
+        <f>VLOOKUP(C74,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="E74" s="1">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
         <v>135</v>
       </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
       <c r="G74">
-        <v>27</v>
-      </c>
-      <c r="I74" s="4">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>27</v>
+      </c>
+      <c r="J74" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="12.75" customHeight="1">
+    <row r="75" spans="1:10" ht="12.75" customHeight="1">
       <c r="A75" t="s">
         <v>132</v>
       </c>
@@ -3458,23 +4222,27 @@
         <v>134</v>
       </c>
       <c r="D75" s="1">
-        <v>16</v>
-      </c>
-      <c r="E75" t="s">
+        <f>VLOOKUP(C75,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="E75" s="1">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
         <v>136</v>
       </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
       <c r="G75">
-        <v>40</v>
-      </c>
-      <c r="I75" s="4">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>40</v>
+      </c>
+      <c r="J75" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="12.75" customHeight="1">
+    <row r="76" spans="1:10" ht="12.75" customHeight="1">
       <c r="A76" t="s">
         <v>132</v>
       </c>
@@ -3485,23 +4253,27 @@
         <v>134</v>
       </c>
       <c r="D76" s="1">
-        <v>16</v>
-      </c>
-      <c r="E76" t="s">
+        <f>VLOOKUP(C76,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="E76" s="1">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
         <v>137</v>
       </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
       <c r="G76">
-        <v>30</v>
-      </c>
-      <c r="I76" s="4">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>30</v>
+      </c>
+      <c r="J76" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="12.75" customHeight="1">
+    <row r="77" spans="1:10" ht="12.75" customHeight="1">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -3512,23 +4284,27 @@
         <v>134</v>
       </c>
       <c r="D77" s="1">
-        <v>16</v>
-      </c>
-      <c r="E77" t="s">
+        <f>VLOOKUP(C77,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="E77" s="1">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
         <v>139</v>
       </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
       <c r="G77">
-        <v>27</v>
-      </c>
-      <c r="I77" s="4">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>27</v>
+      </c>
+      <c r="J77" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="12.75" customHeight="1">
+    <row r="78" spans="1:10" ht="12.75" customHeight="1">
       <c r="A78" t="s">
         <v>138</v>
       </c>
@@ -3539,23 +4315,27 @@
         <v>134</v>
       </c>
       <c r="D78" s="1">
-        <v>16</v>
-      </c>
-      <c r="E78" t="s">
+        <f>VLOOKUP(C78,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="E78" s="1">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
         <v>140</v>
       </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
       <c r="G78">
-        <v>40</v>
-      </c>
-      <c r="I78" s="4">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>40</v>
+      </c>
+      <c r="J78" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="12.75" customHeight="1">
+    <row r="79" spans="1:10" ht="12.75" customHeight="1">
       <c r="A79" t="s">
         <v>138</v>
       </c>
@@ -3566,23 +4346,27 @@
         <v>134</v>
       </c>
       <c r="D79" s="1">
-        <v>16</v>
-      </c>
-      <c r="E79" t="s">
+        <f>VLOOKUP(C79,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="E79" s="1">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
         <v>141</v>
       </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
       <c r="G79">
-        <v>30</v>
-      </c>
-      <c r="I79" s="4">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>30</v>
+      </c>
+      <c r="J79" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="12.75" customHeight="1">
+    <row r="80" spans="1:10" ht="12.75" customHeight="1">
       <c r="A80" t="s">
         <v>142</v>
       </c>
@@ -3593,23 +4377,27 @@
         <v>144</v>
       </c>
       <c r="D80" s="1">
-        <v>17</v>
-      </c>
-      <c r="E80" t="s">
+        <f>VLOOKUP(C80,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="E80" s="1">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
         <v>145</v>
       </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
       <c r="G80">
-        <v>27</v>
-      </c>
-      <c r="I80" s="4">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>27</v>
+      </c>
+      <c r="J80" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="12.75" customHeight="1">
+    <row r="81" spans="1:10" ht="12.75" customHeight="1">
       <c r="A81" t="s">
         <v>142</v>
       </c>
@@ -3620,23 +4408,27 @@
         <v>144</v>
       </c>
       <c r="D81" s="1">
-        <v>17</v>
-      </c>
-      <c r="E81" t="s">
+        <f>VLOOKUP(C81,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="E81" s="1">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
         <v>146</v>
       </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
       <c r="G81">
-        <v>40</v>
-      </c>
-      <c r="I81" s="4">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>40</v>
+      </c>
+      <c r="J81" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="12.75" customHeight="1">
+    <row r="82" spans="1:10" ht="12.75" customHeight="1">
       <c r="A82" t="s">
         <v>142</v>
       </c>
@@ -3647,23 +4439,27 @@
         <v>144</v>
       </c>
       <c r="D82" s="1">
-        <v>17</v>
-      </c>
-      <c r="E82" t="s">
+        <f>VLOOKUP(C82,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="E82" s="1">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
         <v>147</v>
       </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
       <c r="G82">
-        <v>30</v>
-      </c>
-      <c r="I82" s="4">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>30</v>
+      </c>
+      <c r="J82" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="12.75" customHeight="1">
+    <row r="83" spans="1:10" ht="12.75" customHeight="1">
       <c r="A83" t="s">
         <v>148</v>
       </c>
@@ -3674,23 +4470,27 @@
         <v>144</v>
       </c>
       <c r="D83" s="1">
-        <v>17</v>
-      </c>
-      <c r="E83" t="s">
+        <f>VLOOKUP(C83,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="E83" s="1">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
         <v>149</v>
       </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
       <c r="G83">
-        <v>27</v>
-      </c>
-      <c r="I83" s="4">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>27</v>
+      </c>
+      <c r="J83" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="12.75" customHeight="1">
+    <row r="84" spans="1:10" ht="12.75" customHeight="1">
       <c r="A84" t="s">
         <v>148</v>
       </c>
@@ -3701,23 +4501,27 @@
         <v>144</v>
       </c>
       <c r="D84" s="1">
-        <v>17</v>
-      </c>
-      <c r="E84" t="s">
+        <f>VLOOKUP(C84,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="E84" s="1">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
         <v>150</v>
       </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
       <c r="G84">
-        <v>40</v>
-      </c>
-      <c r="I84" s="4">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>40</v>
+      </c>
+      <c r="J84" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="12.75" customHeight="1">
+    <row r="85" spans="1:10" ht="12.75" customHeight="1">
       <c r="A85" t="s">
         <v>148</v>
       </c>
@@ -3728,23 +4532,27 @@
         <v>144</v>
       </c>
       <c r="D85" s="1">
-        <v>17</v>
-      </c>
-      <c r="E85" t="s">
+        <f>VLOOKUP(C85,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="E85" s="1">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
         <v>151</v>
       </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
       <c r="G85">
-        <v>30</v>
-      </c>
-      <c r="I85" s="4">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>30</v>
+      </c>
+      <c r="J85" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="12.75" customHeight="1">
+    <row r="86" spans="1:10" ht="12.75" customHeight="1">
       <c r="A86" t="s">
         <v>152</v>
       </c>
@@ -3755,23 +4563,27 @@
         <v>154</v>
       </c>
       <c r="D86" s="1">
-        <v>18</v>
-      </c>
-      <c r="E86" t="s">
+        <f>VLOOKUP(C86,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="E86" s="1">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
         <v>155</v>
       </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
       <c r="G86">
-        <v>27</v>
-      </c>
-      <c r="I86" s="4">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>27</v>
+      </c>
+      <c r="J86" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="12.75" customHeight="1">
+    <row r="87" spans="1:10" ht="12.75" customHeight="1">
       <c r="A87" t="s">
         <v>152</v>
       </c>
@@ -3782,23 +4594,27 @@
         <v>154</v>
       </c>
       <c r="D87" s="1">
-        <v>18</v>
-      </c>
-      <c r="E87" t="s">
+        <f>VLOOKUP(C87,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="E87" s="1">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
         <v>156</v>
       </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
       <c r="G87">
-        <v>40</v>
-      </c>
-      <c r="I87" s="4">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>40</v>
+      </c>
+      <c r="J87" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="12.75" customHeight="1">
+    <row r="88" spans="1:10" ht="12.75" customHeight="1">
       <c r="A88" t="s">
         <v>152</v>
       </c>
@@ -3809,23 +4625,27 @@
         <v>154</v>
       </c>
       <c r="D88" s="1">
-        <v>18</v>
-      </c>
-      <c r="E88" t="s">
+        <f>VLOOKUP(C88,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="E88" s="1">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
         <v>157</v>
       </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
       <c r="G88">
-        <v>30</v>
-      </c>
-      <c r="I88" s="4">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>30</v>
+      </c>
+      <c r="J88" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="12.75" customHeight="1">
+    <row r="89" spans="1:10" ht="12.75" customHeight="1">
       <c r="A89" t="s">
         <v>158</v>
       </c>
@@ -3836,23 +4656,27 @@
         <v>154</v>
       </c>
       <c r="D89" s="1">
-        <v>18</v>
-      </c>
-      <c r="E89" t="s">
+        <f>VLOOKUP(C89,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="E89" s="1">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
         <v>159</v>
       </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
       <c r="G89">
-        <v>27</v>
-      </c>
-      <c r="I89" s="4">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>27</v>
+      </c>
+      <c r="J89" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="12.75" customHeight="1">
+    <row r="90" spans="1:10" ht="12.75" customHeight="1">
       <c r="A90" t="s">
         <v>158</v>
       </c>
@@ -3863,23 +4687,27 @@
         <v>154</v>
       </c>
       <c r="D90" s="1">
-        <v>18</v>
-      </c>
-      <c r="E90" t="s">
+        <f>VLOOKUP(C90,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="E90" s="1">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
         <v>160</v>
       </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
       <c r="G90">
-        <v>40</v>
-      </c>
-      <c r="I90" s="4">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>40</v>
+      </c>
+      <c r="J90" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="12.75" customHeight="1">
+    <row r="91" spans="1:10" ht="12.75" customHeight="1">
       <c r="A91" t="s">
         <v>158</v>
       </c>
@@ -3890,23 +4718,27 @@
         <v>154</v>
       </c>
       <c r="D91" s="1">
-        <v>18</v>
-      </c>
-      <c r="E91" t="s">
+        <f>VLOOKUP(C91,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="E91" s="1">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
         <v>161</v>
       </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
       <c r="G91">
-        <v>30</v>
-      </c>
-      <c r="I91" s="4">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>30</v>
+      </c>
+      <c r="J91" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="12.75" customHeight="1">
+    <row r="92" spans="1:10" ht="12.75" customHeight="1">
       <c r="A92" t="s">
         <v>162</v>
       </c>
@@ -3917,23 +4749,27 @@
         <v>164</v>
       </c>
       <c r="D92" s="1">
-        <v>19</v>
-      </c>
-      <c r="E92" t="s">
+        <f>VLOOKUP(C92,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="E92" s="1">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
         <v>165</v>
       </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
       <c r="G92">
-        <v>27</v>
-      </c>
-      <c r="I92" s="4">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>27</v>
+      </c>
+      <c r="J92" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="12.75" customHeight="1">
+    <row r="93" spans="1:10" ht="12.75" customHeight="1">
       <c r="A93" t="s">
         <v>162</v>
       </c>
@@ -3944,23 +4780,27 @@
         <v>164</v>
       </c>
       <c r="D93" s="1">
-        <v>19</v>
-      </c>
-      <c r="E93" t="s">
+        <f>VLOOKUP(C93,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="E93" s="1">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s">
         <v>166</v>
       </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
       <c r="G93">
-        <v>40</v>
-      </c>
-      <c r="I93" s="4">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>40</v>
+      </c>
+      <c r="J93" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="12.75" customHeight="1">
+    <row r="94" spans="1:10" ht="12.75" customHeight="1">
       <c r="A94" t="s">
         <v>162</v>
       </c>
@@ -3971,23 +4811,27 @@
         <v>164</v>
       </c>
       <c r="D94" s="1">
-        <v>19</v>
-      </c>
-      <c r="E94" t="s">
+        <f>VLOOKUP(C94,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="E94" s="1">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
         <v>167</v>
       </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
       <c r="G94">
-        <v>30</v>
-      </c>
-      <c r="I94" s="4">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>30</v>
+      </c>
+      <c r="J94" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="12.75" customHeight="1">
+    <row r="95" spans="1:10" ht="12.75" customHeight="1">
       <c r="A95" t="s">
         <v>168</v>
       </c>
@@ -3998,23 +4842,27 @@
         <v>170</v>
       </c>
       <c r="D95" s="1">
-        <v>20</v>
-      </c>
-      <c r="E95" t="s">
+        <f>VLOOKUP(C95,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="E95" s="1">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s">
         <v>171</v>
       </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
       <c r="G95">
-        <v>27</v>
-      </c>
-      <c r="I95" s="4">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>27</v>
+      </c>
+      <c r="J95" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="12.75" customHeight="1">
+    <row r="96" spans="1:10" ht="12.75" customHeight="1">
       <c r="A96" t="s">
         <v>168</v>
       </c>
@@ -4025,23 +4873,27 @@
         <v>170</v>
       </c>
       <c r="D96" s="1">
-        <v>20</v>
-      </c>
-      <c r="E96" t="s">
+        <f>VLOOKUP(C96,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="E96" s="1">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
         <v>172</v>
       </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
       <c r="G96">
-        <v>40</v>
-      </c>
-      <c r="I96" s="4">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>40</v>
+      </c>
+      <c r="J96" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="12.75" customHeight="1">
+    <row r="97" spans="1:10" ht="12.75" customHeight="1">
       <c r="A97" t="s">
         <v>168</v>
       </c>
@@ -4052,23 +4904,27 @@
         <v>170</v>
       </c>
       <c r="D97" s="1">
-        <v>20</v>
-      </c>
-      <c r="E97" t="s">
+        <f>VLOOKUP(C97,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="E97" s="1">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
         <v>173</v>
       </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
       <c r="G97">
-        <v>30</v>
-      </c>
-      <c r="I97" s="4">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>30</v>
+      </c>
+      <c r="J97" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="12.75" customHeight="1">
+    <row r="98" spans="1:10" ht="12.75" customHeight="1">
       <c r="A98" t="s">
         <v>174</v>
       </c>
@@ -4079,23 +4935,27 @@
         <v>176</v>
       </c>
       <c r="D98" s="1">
-        <v>21</v>
-      </c>
-      <c r="E98" t="s">
+        <f>VLOOKUP(C98,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E98" s="1">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
         <v>177</v>
       </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
       <c r="G98">
-        <v>27</v>
-      </c>
-      <c r="I98" s="4">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>27</v>
+      </c>
+      <c r="J98" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="12.75" customHeight="1">
+    <row r="99" spans="1:10" ht="12.75" customHeight="1">
       <c r="A99" t="s">
         <v>174</v>
       </c>
@@ -4106,23 +4966,27 @@
         <v>176</v>
       </c>
       <c r="D99" s="1">
-        <v>21</v>
-      </c>
-      <c r="E99" t="s">
+        <f>VLOOKUP(C99,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E99" s="1">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
         <v>178</v>
       </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
       <c r="G99">
-        <v>40</v>
-      </c>
-      <c r="I99" s="4">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>40</v>
+      </c>
+      <c r="J99" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="12.75" customHeight="1">
+    <row r="100" spans="1:10" ht="12.75" customHeight="1">
       <c r="A100" t="s">
         <v>174</v>
       </c>
@@ -4133,23 +4997,27 @@
         <v>176</v>
       </c>
       <c r="D100" s="1">
-        <v>21</v>
-      </c>
-      <c r="E100" t="s">
+        <f>VLOOKUP(C100,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="E100" s="1">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
         <v>179</v>
       </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
       <c r="G100">
-        <v>30</v>
-      </c>
-      <c r="I100" s="4">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>30</v>
+      </c>
+      <c r="J100" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="12.75" customHeight="1">
+    <row r="101" spans="1:10" ht="12.75" customHeight="1">
       <c r="A101" t="s">
         <v>180</v>
       </c>
@@ -4160,23 +5028,27 @@
         <v>182</v>
       </c>
       <c r="D101" s="1">
-        <v>22</v>
-      </c>
-      <c r="E101" t="s">
+        <f>VLOOKUP(C101,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="E101" s="1">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
         <v>183</v>
       </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
       <c r="G101">
-        <v>27</v>
-      </c>
-      <c r="I101" s="4">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>27</v>
+      </c>
+      <c r="J101" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="12.75" customHeight="1">
+    <row r="102" spans="1:10" ht="12.75" customHeight="1">
       <c r="A102" t="s">
         <v>180</v>
       </c>
@@ -4187,23 +5059,27 @@
         <v>182</v>
       </c>
       <c r="D102" s="1">
-        <v>22</v>
-      </c>
-      <c r="E102" t="s">
+        <f>VLOOKUP(C102,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="E102" s="1">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
         <v>184</v>
       </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
       <c r="G102">
-        <v>40</v>
-      </c>
-      <c r="I102" s="4">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>40</v>
+      </c>
+      <c r="J102" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="12.75" customHeight="1">
+    <row r="103" spans="1:10" ht="12.75" customHeight="1">
       <c r="A103" t="s">
         <v>180</v>
       </c>
@@ -4214,23 +5090,27 @@
         <v>182</v>
       </c>
       <c r="D103" s="1">
-        <v>22</v>
-      </c>
-      <c r="E103" t="s">
+        <f>VLOOKUP(C103,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="E103" s="1">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
         <v>185</v>
       </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
       <c r="G103">
-        <v>30</v>
-      </c>
-      <c r="I103" s="4">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>30</v>
+      </c>
+      <c r="J103" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="12.75" customHeight="1">
+    <row r="104" spans="1:10" ht="12.75" customHeight="1">
       <c r="A104" t="s">
         <v>186</v>
       </c>
@@ -4241,23 +5121,27 @@
         <v>182</v>
       </c>
       <c r="D104" s="1">
-        <v>22</v>
-      </c>
-      <c r="E104" t="s">
+        <f>VLOOKUP(C104,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="E104" s="1">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
         <v>187</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>0</v>
       </c>
-      <c r="G104">
-        <v>27</v>
-      </c>
-      <c r="I104" s="4">
+      <c r="H104">
+        <v>27</v>
+      </c>
+      <c r="J104" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="12.75" customHeight="1">
+    <row r="105" spans="1:10" ht="12.75" customHeight="1">
       <c r="A105" t="s">
         <v>186</v>
       </c>
@@ -4268,23 +5152,27 @@
         <v>182</v>
       </c>
       <c r="D105" s="1">
-        <v>22</v>
-      </c>
-      <c r="E105" t="s">
+        <f>VLOOKUP(C105,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="E105" s="1">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
         <v>188</v>
       </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
       <c r="G105">
-        <v>40</v>
-      </c>
-      <c r="I105" s="4">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>40</v>
+      </c>
+      <c r="J105" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="12.75" customHeight="1">
+    <row r="106" spans="1:10" ht="12.75" customHeight="1">
       <c r="A106" t="s">
         <v>186</v>
       </c>
@@ -4295,23 +5183,27 @@
         <v>182</v>
       </c>
       <c r="D106" s="1">
-        <v>22</v>
-      </c>
-      <c r="E106" t="s">
+        <f>VLOOKUP(C106,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="E106" s="1">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
         <v>189</v>
       </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
       <c r="G106">
-        <v>30</v>
-      </c>
-      <c r="I106" s="4">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>30</v>
+      </c>
+      <c r="J106" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="12.75" customHeight="1">
+    <row r="107" spans="1:10" ht="12.75" customHeight="1">
       <c r="A107" t="s">
         <v>190</v>
       </c>
@@ -4322,23 +5214,27 @@
         <v>192</v>
       </c>
       <c r="D107" s="1">
-        <v>23</v>
-      </c>
-      <c r="E107" t="s">
+        <f>VLOOKUP(C107,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="E107" s="1">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
         <v>193</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>0</v>
       </c>
-      <c r="G107">
-        <v>27</v>
-      </c>
-      <c r="I107" s="4">
+      <c r="H107">
+        <v>27</v>
+      </c>
+      <c r="J107" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="12.75" customHeight="1">
+    <row r="108" spans="1:10" ht="12.75" customHeight="1">
       <c r="A108" t="s">
         <v>190</v>
       </c>
@@ -4349,23 +5245,27 @@
         <v>192</v>
       </c>
       <c r="D108" s="1">
-        <v>23</v>
-      </c>
-      <c r="E108" t="s">
+        <f>VLOOKUP(C108,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="E108" s="1">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
         <v>194</v>
       </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
       <c r="G108">
-        <v>40</v>
-      </c>
-      <c r="I108" s="4">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>40</v>
+      </c>
+      <c r="J108" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="12.75" customHeight="1">
+    <row r="109" spans="1:10" ht="12.75" customHeight="1">
       <c r="A109" t="s">
         <v>190</v>
       </c>
@@ -4376,23 +5276,27 @@
         <v>192</v>
       </c>
       <c r="D109" s="1">
-        <v>23</v>
-      </c>
-      <c r="E109" t="s">
+        <f>VLOOKUP(C109,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="E109" s="1">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
         <v>195</v>
       </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
       <c r="G109">
-        <v>30</v>
-      </c>
-      <c r="I109" s="4">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>30</v>
+      </c>
+      <c r="J109" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="12.75" customHeight="1">
+    <row r="110" spans="1:10" ht="12.75" customHeight="1">
       <c r="A110" t="s">
         <v>196</v>
       </c>
@@ -4403,23 +5307,27 @@
         <v>192</v>
       </c>
       <c r="D110" s="1">
-        <v>23</v>
-      </c>
-      <c r="E110" t="s">
+        <f>VLOOKUP(C110,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="E110" s="1">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
         <v>197</v>
       </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
       <c r="G110">
-        <v>27</v>
-      </c>
-      <c r="I110" s="4">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>27</v>
+      </c>
+      <c r="J110" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="12.75" customHeight="1">
+    <row r="111" spans="1:10" ht="12.75" customHeight="1">
       <c r="A111" t="s">
         <v>196</v>
       </c>
@@ -4430,23 +5338,27 @@
         <v>192</v>
       </c>
       <c r="D111" s="1">
-        <v>23</v>
-      </c>
-      <c r="E111" t="s">
+        <f>VLOOKUP(C111,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="E111" s="1">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
         <v>198</v>
       </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
       <c r="G111">
-        <v>40</v>
-      </c>
-      <c r="I111" s="4">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>40</v>
+      </c>
+      <c r="J111" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="12.75" customHeight="1">
+    <row r="112" spans="1:10" ht="12.75" customHeight="1">
       <c r="A112" t="s">
         <v>196</v>
       </c>
@@ -4457,23 +5369,27 @@
         <v>192</v>
       </c>
       <c r="D112" s="1">
-        <v>23</v>
-      </c>
-      <c r="E112" t="s">
+        <f>VLOOKUP(C112,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="E112" s="1">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
         <v>199</v>
       </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
       <c r="G112">
-        <v>30</v>
-      </c>
-      <c r="I112" s="4">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>30</v>
+      </c>
+      <c r="J112" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="12.75" customHeight="1">
+    <row r="113" spans="1:10" ht="12.75" customHeight="1">
       <c r="A113" t="s">
         <v>200</v>
       </c>
@@ -4484,23 +5400,27 @@
         <v>202</v>
       </c>
       <c r="D113" s="1">
-        <v>24</v>
-      </c>
-      <c r="E113" t="s">
+        <f>VLOOKUP(C113,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>19</v>
+      </c>
+      <c r="E113" s="1">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
         <v>203</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>0</v>
       </c>
-      <c r="G113">
-        <v>27</v>
-      </c>
-      <c r="I113" s="4">
+      <c r="H113">
+        <v>27</v>
+      </c>
+      <c r="J113" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="12.75" customHeight="1">
+    <row r="114" spans="1:10" ht="12.75" customHeight="1">
       <c r="A114" t="s">
         <v>200</v>
       </c>
@@ -4511,23 +5431,27 @@
         <v>202</v>
       </c>
       <c r="D114" s="1">
-        <v>24</v>
-      </c>
-      <c r="E114" t="s">
+        <f>VLOOKUP(C114,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>19</v>
+      </c>
+      <c r="E114" s="1">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
         <v>204</v>
       </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
       <c r="G114">
-        <v>40</v>
-      </c>
-      <c r="I114" s="4">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>40</v>
+      </c>
+      <c r="J114" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="12.75" customHeight="1">
+    <row r="115" spans="1:10" ht="12.75" customHeight="1">
       <c r="A115" t="s">
         <v>200</v>
       </c>
@@ -4538,23 +5462,27 @@
         <v>202</v>
       </c>
       <c r="D115" s="1">
-        <v>24</v>
-      </c>
-      <c r="E115" t="s">
+        <f>VLOOKUP(C115,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>19</v>
+      </c>
+      <c r="E115" s="1">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s">
         <v>205</v>
       </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
       <c r="G115">
-        <v>30</v>
-      </c>
-      <c r="I115" s="4">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>30</v>
+      </c>
+      <c r="J115" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="12.75" customHeight="1">
+    <row r="116" spans="1:10" ht="12.75" customHeight="1">
       <c r="A116" t="s">
         <v>206</v>
       </c>
@@ -4565,23 +5493,27 @@
         <v>202</v>
       </c>
       <c r="D116" s="1">
-        <v>24</v>
-      </c>
-      <c r="E116" t="s">
+        <f>VLOOKUP(C116,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>19</v>
+      </c>
+      <c r="E116" s="1">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
         <v>207</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>0</v>
       </c>
-      <c r="G116">
-        <v>27</v>
-      </c>
-      <c r="I116" s="4">
+      <c r="H116">
+        <v>27</v>
+      </c>
+      <c r="J116" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="12.75" customHeight="1">
+    <row r="117" spans="1:10" ht="12.75" customHeight="1">
       <c r="A117" t="s">
         <v>206</v>
       </c>
@@ -4592,23 +5524,27 @@
         <v>202</v>
       </c>
       <c r="D117" s="1">
-        <v>24</v>
-      </c>
-      <c r="E117" t="s">
+        <f>VLOOKUP(C117,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>19</v>
+      </c>
+      <c r="E117" s="1">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s">
         <v>208</v>
       </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
       <c r="G117">
-        <v>40</v>
-      </c>
-      <c r="I117" s="4">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>40</v>
+      </c>
+      <c r="J117" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="12.75" customHeight="1">
+    <row r="118" spans="1:10" ht="12.75" customHeight="1">
       <c r="A118" t="s">
         <v>206</v>
       </c>
@@ -4619,23 +5555,27 @@
         <v>202</v>
       </c>
       <c r="D118" s="1">
-        <v>24</v>
-      </c>
-      <c r="E118" t="s">
+        <f>VLOOKUP(C118,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>19</v>
+      </c>
+      <c r="E118" s="1">
+        <v>10</v>
+      </c>
+      <c r="F118" t="s">
         <v>209</v>
       </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
       <c r="G118">
-        <v>30</v>
-      </c>
-      <c r="I118" s="4">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>30</v>
+      </c>
+      <c r="J118" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="12.75" customHeight="1">
+    <row r="119" spans="1:10" ht="12.75" customHeight="1">
       <c r="A119" t="s">
         <v>210</v>
       </c>
@@ -4646,23 +5586,27 @@
         <v>212</v>
       </c>
       <c r="D119" s="1">
-        <v>25</v>
-      </c>
-      <c r="E119" t="s">
+        <f>VLOOKUP(C119,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E119" s="1">
+        <v>10</v>
+      </c>
+      <c r="F119" t="s">
         <v>213</v>
       </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
       <c r="G119">
-        <v>27</v>
-      </c>
-      <c r="I119" s="4">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>27</v>
+      </c>
+      <c r="J119" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="12.75" customHeight="1">
+    <row r="120" spans="1:10" ht="12.75" customHeight="1">
       <c r="A120" t="s">
         <v>210</v>
       </c>
@@ -4673,23 +5617,27 @@
         <v>212</v>
       </c>
       <c r="D120" s="1">
-        <v>25</v>
-      </c>
-      <c r="E120" t="s">
+        <f>VLOOKUP(C120,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E120" s="1">
+        <v>10</v>
+      </c>
+      <c r="F120" t="s">
         <v>214</v>
       </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
       <c r="G120">
-        <v>40</v>
-      </c>
-      <c r="I120" s="4">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>40</v>
+      </c>
+      <c r="J120" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="12.75" customHeight="1">
+    <row r="121" spans="1:10" ht="12.75" customHeight="1">
       <c r="A121" t="s">
         <v>210</v>
       </c>
@@ -4700,23 +5648,27 @@
         <v>212</v>
       </c>
       <c r="D121" s="1">
-        <v>25</v>
-      </c>
-      <c r="E121" t="s">
+        <f>VLOOKUP(C121,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="E121" s="1">
+        <v>10</v>
+      </c>
+      <c r="F121" t="s">
         <v>215</v>
       </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
       <c r="G121">
-        <v>30</v>
-      </c>
-      <c r="I121" s="4">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>30</v>
+      </c>
+      <c r="J121" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="12.75" customHeight="1">
+    <row r="122" spans="1:10" ht="12.75" customHeight="1">
       <c r="A122" t="s">
         <v>216</v>
       </c>
@@ -4727,23 +5679,27 @@
         <v>218</v>
       </c>
       <c r="D122" s="1">
-        <v>26</v>
-      </c>
-      <c r="E122" t="s">
+        <f>VLOOKUP(C122,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E122" s="1">
+        <v>10</v>
+      </c>
+      <c r="F122" t="s">
         <v>219</v>
       </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
       <c r="G122">
-        <v>27</v>
-      </c>
-      <c r="I122" s="4">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>27</v>
+      </c>
+      <c r="J122" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="12.75" customHeight="1">
+    <row r="123" spans="1:10" ht="12.75" customHeight="1">
       <c r="A123" t="s">
         <v>216</v>
       </c>
@@ -4754,23 +5710,27 @@
         <v>218</v>
       </c>
       <c r="D123" s="1">
-        <v>26</v>
-      </c>
-      <c r="E123" t="s">
+        <f>VLOOKUP(C123,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E123" s="1">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
         <v>220</v>
       </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
       <c r="G123">
-        <v>40</v>
-      </c>
-      <c r="I123" s="4">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>40</v>
+      </c>
+      <c r="J123" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="12.75" customHeight="1">
+    <row r="124" spans="1:10" ht="12.75" customHeight="1">
       <c r="A124" t="s">
         <v>216</v>
       </c>
@@ -4781,23 +5741,27 @@
         <v>218</v>
       </c>
       <c r="D124" s="1">
-        <v>26</v>
-      </c>
-      <c r="E124" t="s">
+        <f>VLOOKUP(C124,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E124" s="1">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
         <v>221</v>
       </c>
-      <c r="F124">
-        <v>1</v>
-      </c>
       <c r="G124">
-        <v>30</v>
-      </c>
-      <c r="I124" s="4">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>30</v>
+      </c>
+      <c r="J124" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="12.75" customHeight="1">
+    <row r="125" spans="1:10" ht="12.75" customHeight="1">
       <c r="A125" t="s">
         <v>222</v>
       </c>
@@ -4808,23 +5772,27 @@
         <v>218</v>
       </c>
       <c r="D125" s="1">
-        <v>26</v>
-      </c>
-      <c r="E125" t="s">
+        <f>VLOOKUP(C125,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E125" s="1">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
         <v>223</v>
       </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
       <c r="G125">
-        <v>27</v>
-      </c>
-      <c r="I125" s="4">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>27</v>
+      </c>
+      <c r="J125" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="12.75" customHeight="1">
+    <row r="126" spans="1:10" ht="12.75" customHeight="1">
       <c r="A126" t="s">
         <v>222</v>
       </c>
@@ -4835,23 +5803,27 @@
         <v>218</v>
       </c>
       <c r="D126" s="1">
-        <v>26</v>
-      </c>
-      <c r="E126" t="s">
+        <f>VLOOKUP(C126,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E126" s="1">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s">
         <v>224</v>
       </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
       <c r="G126">
-        <v>40</v>
-      </c>
-      <c r="I126" s="4">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>40</v>
+      </c>
+      <c r="J126" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="12.75" customHeight="1">
+    <row r="127" spans="1:10" ht="12.75" customHeight="1">
       <c r="A127" t="s">
         <v>222</v>
       </c>
@@ -4862,23 +5834,27 @@
         <v>218</v>
       </c>
       <c r="D127" s="1">
-        <v>26</v>
-      </c>
-      <c r="E127" t="s">
+        <f>VLOOKUP(C127,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="E127" s="1">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s">
         <v>225</v>
       </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
       <c r="G127">
-        <v>30</v>
-      </c>
-      <c r="I127" s="4">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>30</v>
+      </c>
+      <c r="J127" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="12.75" customHeight="1">
+    <row r="128" spans="1:10" ht="12.75" customHeight="1">
       <c r="A128" t="s">
         <v>226</v>
       </c>
@@ -4889,23 +5865,27 @@
         <v>228</v>
       </c>
       <c r="D128" s="1">
-        <v>27</v>
-      </c>
-      <c r="E128" t="s">
+        <f>VLOOKUP(C128,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="E128" s="1">
+        <v>10</v>
+      </c>
+      <c r="F128" t="s">
         <v>229</v>
       </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
       <c r="G128">
-        <v>27</v>
-      </c>
-      <c r="I128" s="4">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>27</v>
+      </c>
+      <c r="J128" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="12.75" customHeight="1">
+    <row r="129" spans="1:10" ht="12.75" customHeight="1">
       <c r="A129" t="s">
         <v>226</v>
       </c>
@@ -4916,23 +5896,27 @@
         <v>228</v>
       </c>
       <c r="D129" s="1">
-        <v>27</v>
-      </c>
-      <c r="E129" t="s">
+        <f>VLOOKUP(C129,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="E129" s="1">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s">
         <v>230</v>
       </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
       <c r="G129">
-        <v>40</v>
-      </c>
-      <c r="I129" s="4">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>40</v>
+      </c>
+      <c r="J129" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="12.75" customHeight="1">
+    <row r="130" spans="1:10" ht="12.75" customHeight="1">
       <c r="A130" t="s">
         <v>226</v>
       </c>
@@ -4943,23 +5927,27 @@
         <v>228</v>
       </c>
       <c r="D130" s="1">
-        <v>27</v>
-      </c>
-      <c r="E130" t="s">
+        <f>VLOOKUP(C130,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="E130" s="1">
+        <v>10</v>
+      </c>
+      <c r="F130" t="s">
         <v>231</v>
       </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
       <c r="G130">
-        <v>30</v>
-      </c>
-      <c r="I130" s="4">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>30</v>
+      </c>
+      <c r="J130" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="12.75" customHeight="1">
+    <row r="131" spans="1:10" ht="12.75" customHeight="1">
       <c r="A131" t="s">
         <v>66</v>
       </c>
@@ -4970,23 +5958,27 @@
         <v>228</v>
       </c>
       <c r="D131" s="1">
-        <v>27</v>
-      </c>
-      <c r="E131" t="s">
+        <f>VLOOKUP(C131,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="E131" s="1">
+        <v>10</v>
+      </c>
+      <c r="F131" t="s">
         <v>233</v>
       </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
       <c r="G131">
-        <v>27</v>
-      </c>
-      <c r="I131" s="4">
-        <f t="shared" ref="I131:I186" si="2">F131*G131</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>27</v>
+      </c>
+      <c r="J131" s="4">
+        <f t="shared" ref="J131:J186" si="2">G131*H131</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="12.75" customHeight="1">
       <c r="A132" t="s">
         <v>66</v>
       </c>
@@ -4997,23 +5989,27 @@
         <v>228</v>
       </c>
       <c r="D132" s="1">
-        <v>27</v>
-      </c>
-      <c r="E132" t="s">
+        <f>VLOOKUP(C132,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="E132" s="1">
+        <v>10</v>
+      </c>
+      <c r="F132" t="s">
         <v>234</v>
       </c>
-      <c r="F132">
-        <v>1</v>
-      </c>
       <c r="G132">
-        <v>40</v>
-      </c>
-      <c r="I132" s="4">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>40</v>
+      </c>
+      <c r="J132" s="4">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="12.75" customHeight="1">
+    <row r="133" spans="1:10" ht="12.75" customHeight="1">
       <c r="A133" t="s">
         <v>66</v>
       </c>
@@ -5024,23 +6020,27 @@
         <v>228</v>
       </c>
       <c r="D133" s="1">
-        <v>27</v>
-      </c>
-      <c r="E133" t="s">
+        <f>VLOOKUP(C133,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="E133" s="1">
+        <v>10</v>
+      </c>
+      <c r="F133" t="s">
         <v>235</v>
       </c>
-      <c r="F133">
-        <v>1</v>
-      </c>
       <c r="G133">
-        <v>30</v>
-      </c>
-      <c r="I133" s="4">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>30</v>
+      </c>
+      <c r="J133" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="12.75" customHeight="1">
+    <row r="134" spans="1:10" ht="12.75" customHeight="1">
       <c r="A134" t="s">
         <v>66</v>
       </c>
@@ -5051,23 +6051,27 @@
         <v>228</v>
       </c>
       <c r="D134" s="1">
-        <v>27</v>
-      </c>
-      <c r="E134" t="s">
+        <f>VLOOKUP(C134,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="E134" s="1">
+        <v>10</v>
+      </c>
+      <c r="F134" t="s">
         <v>236</v>
       </c>
-      <c r="F134">
-        <v>1</v>
-      </c>
       <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
         <v>15</v>
       </c>
-      <c r="I134" s="4">
+      <c r="J134" s="4">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="12.75" customHeight="1">
+    <row r="135" spans="1:10" ht="12.75" customHeight="1">
       <c r="A135" t="s">
         <v>237</v>
       </c>
@@ -5078,23 +6082,27 @@
         <v>239</v>
       </c>
       <c r="D135" s="1">
-        <v>28</v>
-      </c>
-      <c r="E135" t="s">
+        <f>VLOOKUP(C135,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="E135" s="1">
+        <v>10</v>
+      </c>
+      <c r="F135" t="s">
         <v>240</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>0</v>
       </c>
-      <c r="G135">
-        <v>27</v>
-      </c>
-      <c r="I135" s="4">
+      <c r="H135">
+        <v>27</v>
+      </c>
+      <c r="J135" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="12.75" customHeight="1">
+    <row r="136" spans="1:10" ht="12.75" customHeight="1">
       <c r="A136" t="s">
         <v>237</v>
       </c>
@@ -5105,23 +6113,27 @@
         <v>239</v>
       </c>
       <c r="D136" s="1">
-        <v>28</v>
-      </c>
-      <c r="E136" t="s">
+        <f>VLOOKUP(C136,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="E136" s="1">
+        <v>10</v>
+      </c>
+      <c r="F136" t="s">
         <v>241</v>
       </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
       <c r="G136">
-        <v>40</v>
-      </c>
-      <c r="I136" s="4">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>40</v>
+      </c>
+      <c r="J136" s="4">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="12.75" customHeight="1">
+    <row r="137" spans="1:10" ht="12.75" customHeight="1">
       <c r="A137" t="s">
         <v>237</v>
       </c>
@@ -5132,23 +6144,27 @@
         <v>239</v>
       </c>
       <c r="D137" s="1">
-        <v>28</v>
-      </c>
-      <c r="E137" t="s">
+        <f>VLOOKUP(C137,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="E137" s="1">
+        <v>10</v>
+      </c>
+      <c r="F137" t="s">
         <v>242</v>
       </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
       <c r="G137">
-        <v>30</v>
-      </c>
-      <c r="I137" s="4">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>30</v>
+      </c>
+      <c r="J137" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="12.75" customHeight="1">
+    <row r="138" spans="1:10" ht="12.75" customHeight="1">
       <c r="A138" t="s">
         <v>243</v>
       </c>
@@ -5159,23 +6175,27 @@
         <v>245</v>
       </c>
       <c r="D138" s="1">
-        <v>29</v>
-      </c>
-      <c r="E138" t="s">
+        <f>VLOOKUP(C138,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="E138" s="1">
+        <v>10</v>
+      </c>
+      <c r="F138" t="s">
         <v>246</v>
       </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
       <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
         <v>15</v>
       </c>
-      <c r="I138" s="4">
+      <c r="J138" s="4">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="12.75" customHeight="1">
+    <row r="139" spans="1:10" ht="12.75" customHeight="1">
       <c r="A139" t="s">
         <v>243</v>
       </c>
@@ -5186,23 +6206,27 @@
         <v>245</v>
       </c>
       <c r="D139" s="1">
-        <v>29</v>
-      </c>
-      <c r="E139" t="s">
+        <f>VLOOKUP(C139,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="E139" s="1">
+        <v>10</v>
+      </c>
+      <c r="F139" t="s">
         <v>247</v>
       </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
       <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
         <v>25</v>
       </c>
-      <c r="I139" s="4">
+      <c r="J139" s="4">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="12.75" customHeight="1">
+    <row r="140" spans="1:10" ht="12.75" customHeight="1">
       <c r="A140" t="s">
         <v>243</v>
       </c>
@@ -5213,23 +6237,27 @@
         <v>245</v>
       </c>
       <c r="D140" s="1">
-        <v>29</v>
-      </c>
-      <c r="E140" t="s">
+        <f>VLOOKUP(C140,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="E140" s="1">
+        <v>10</v>
+      </c>
+      <c r="F140" t="s">
         <v>248</v>
       </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
       <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
         <v>20</v>
       </c>
-      <c r="I140" s="4">
+      <c r="J140" s="4">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="12.75" customHeight="1">
+    <row r="141" spans="1:10" ht="12.75" customHeight="1">
       <c r="A141" t="s">
         <v>249</v>
       </c>
@@ -5240,23 +6268,27 @@
         <v>245</v>
       </c>
       <c r="D141" s="1">
-        <v>29</v>
-      </c>
-      <c r="E141" t="s">
+        <f>VLOOKUP(C141,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="E141" s="1">
+        <v>10</v>
+      </c>
+      <c r="F141" t="s">
         <v>250</v>
       </c>
-      <c r="F141">
-        <v>1</v>
-      </c>
       <c r="G141">
-        <v>27</v>
-      </c>
-      <c r="I141" s="4">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>27</v>
+      </c>
+      <c r="J141" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="12.75" customHeight="1">
+    <row r="142" spans="1:10" ht="12.75" customHeight="1">
       <c r="A142" t="s">
         <v>249</v>
       </c>
@@ -5267,23 +6299,27 @@
         <v>245</v>
       </c>
       <c r="D142" s="1">
-        <v>29</v>
-      </c>
-      <c r="E142" t="s">
+        <f>VLOOKUP(C142,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="E142" s="1">
+        <v>10</v>
+      </c>
+      <c r="F142" t="s">
         <v>251</v>
       </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
       <c r="G142">
-        <v>40</v>
-      </c>
-      <c r="I142" s="4">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>40</v>
+      </c>
+      <c r="J142" s="4">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="12.75" customHeight="1">
+    <row r="143" spans="1:10" ht="12.75" customHeight="1">
       <c r="A143" t="s">
         <v>249</v>
       </c>
@@ -5294,23 +6330,27 @@
         <v>245</v>
       </c>
       <c r="D143" s="1">
-        <v>29</v>
-      </c>
-      <c r="E143" t="s">
+        <f>VLOOKUP(C143,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="E143" s="1">
+        <v>10</v>
+      </c>
+      <c r="F143" t="s">
         <v>252</v>
       </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
       <c r="G143">
-        <v>30</v>
-      </c>
-      <c r="I143" s="4">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>30</v>
+      </c>
+      <c r="J143" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="12.75" customHeight="1">
+    <row r="144" spans="1:10" ht="12.75" customHeight="1">
       <c r="A144" t="s">
         <v>253</v>
       </c>
@@ -5321,23 +6361,27 @@
         <v>255</v>
       </c>
       <c r="D144" s="1">
-        <v>30</v>
-      </c>
-      <c r="E144" t="s">
+        <f>VLOOKUP(C144,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="E144" s="1">
+        <v>10</v>
+      </c>
+      <c r="F144" t="s">
         <v>256</v>
       </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
       <c r="G144">
-        <v>27</v>
-      </c>
-      <c r="I144" s="4">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>27</v>
+      </c>
+      <c r="J144" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="12.75" customHeight="1">
+    <row r="145" spans="1:10" ht="12.75" customHeight="1">
       <c r="A145" t="s">
         <v>253</v>
       </c>
@@ -5348,23 +6392,27 @@
         <v>255</v>
       </c>
       <c r="D145" s="1">
-        <v>30</v>
-      </c>
-      <c r="E145" t="s">
+        <f>VLOOKUP(C145,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="E145" s="1">
+        <v>10</v>
+      </c>
+      <c r="F145" t="s">
         <v>257</v>
       </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
       <c r="G145">
-        <v>40</v>
-      </c>
-      <c r="I145" s="4">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>40</v>
+      </c>
+      <c r="J145" s="4">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="12.75" customHeight="1">
+    <row r="146" spans="1:10" ht="12.75" customHeight="1">
       <c r="A146" t="s">
         <v>253</v>
       </c>
@@ -5375,23 +6423,27 @@
         <v>255</v>
       </c>
       <c r="D146" s="1">
-        <v>30</v>
-      </c>
-      <c r="E146" t="s">
+        <f>VLOOKUP(C146,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="E146" s="1">
+        <v>10</v>
+      </c>
+      <c r="F146" t="s">
         <v>258</v>
       </c>
-      <c r="F146">
-        <v>1</v>
-      </c>
       <c r="G146">
-        <v>30</v>
-      </c>
-      <c r="I146" s="4">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>30</v>
+      </c>
+      <c r="J146" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="12.75" customHeight="1">
+    <row r="147" spans="1:10" ht="12.75" customHeight="1">
       <c r="A147" t="s">
         <v>259</v>
       </c>
@@ -5402,23 +6454,27 @@
         <v>255</v>
       </c>
       <c r="D147" s="1">
-        <v>30</v>
-      </c>
-      <c r="E147" t="s">
+        <f>VLOOKUP(C147,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="E147" s="1">
+        <v>10</v>
+      </c>
+      <c r="F147" t="s">
         <v>260</v>
       </c>
-      <c r="F147">
-        <v>1</v>
-      </c>
       <c r="G147">
-        <v>27</v>
-      </c>
-      <c r="I147" s="4">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>27</v>
+      </c>
+      <c r="J147" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="12.75" customHeight="1">
+    <row r="148" spans="1:10" ht="12.75" customHeight="1">
       <c r="A148" t="s">
         <v>259</v>
       </c>
@@ -5429,23 +6485,27 @@
         <v>255</v>
       </c>
       <c r="D148" s="1">
-        <v>30</v>
-      </c>
-      <c r="E148" t="s">
+        <f>VLOOKUP(C148,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="E148" s="1">
+        <v>10</v>
+      </c>
+      <c r="F148" t="s">
         <v>261</v>
       </c>
-      <c r="F148">
-        <v>1</v>
-      </c>
       <c r="G148">
-        <v>40</v>
-      </c>
-      <c r="I148" s="4">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>40</v>
+      </c>
+      <c r="J148" s="4">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="12.75" customHeight="1">
+    <row r="149" spans="1:10" ht="12.75" customHeight="1">
       <c r="A149" t="s">
         <v>259</v>
       </c>
@@ -5456,23 +6516,27 @@
         <v>255</v>
       </c>
       <c r="D149" s="1">
-        <v>30</v>
-      </c>
-      <c r="E149" t="s">
+        <f>VLOOKUP(C149,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="E149" s="1">
+        <v>10</v>
+      </c>
+      <c r="F149" t="s">
         <v>262</v>
       </c>
-      <c r="F149">
-        <v>1</v>
-      </c>
       <c r="G149">
-        <v>30</v>
-      </c>
-      <c r="I149" s="4">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>30</v>
+      </c>
+      <c r="J149" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="12.75" customHeight="1">
+    <row r="150" spans="1:10" ht="12.75" customHeight="1">
       <c r="A150" t="s">
         <v>263</v>
       </c>
@@ -5483,23 +6547,27 @@
         <v>265</v>
       </c>
       <c r="D150" s="1">
-        <v>31</v>
-      </c>
-      <c r="E150" t="s">
+        <f>VLOOKUP(C150,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="E150" s="1">
+        <v>10</v>
+      </c>
+      <c r="F150" t="s">
         <v>266</v>
       </c>
-      <c r="F150">
-        <v>1</v>
-      </c>
       <c r="G150">
-        <v>27</v>
-      </c>
-      <c r="I150" s="4">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>27</v>
+      </c>
+      <c r="J150" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="12.75" customHeight="1">
+    <row r="151" spans="1:10" ht="12.75" customHeight="1">
       <c r="A151" t="s">
         <v>263</v>
       </c>
@@ -5510,23 +6578,27 @@
         <v>265</v>
       </c>
       <c r="D151" s="1">
-        <v>31</v>
-      </c>
-      <c r="E151" t="s">
+        <f>VLOOKUP(C151,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="E151" s="1">
+        <v>10</v>
+      </c>
+      <c r="F151" t="s">
         <v>267</v>
       </c>
-      <c r="F151">
-        <v>1</v>
-      </c>
       <c r="G151">
-        <v>40</v>
-      </c>
-      <c r="I151" s="4">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>40</v>
+      </c>
+      <c r="J151" s="4">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="12.75" customHeight="1">
+    <row r="152" spans="1:10" ht="12.75" customHeight="1">
       <c r="A152" t="s">
         <v>263</v>
       </c>
@@ -5537,23 +6609,27 @@
         <v>265</v>
       </c>
       <c r="D152" s="1">
-        <v>31</v>
-      </c>
-      <c r="E152" t="s">
+        <f>VLOOKUP(C152,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="E152" s="1">
+        <v>10</v>
+      </c>
+      <c r="F152" t="s">
         <v>268</v>
       </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
       <c r="G152">
-        <v>30</v>
-      </c>
-      <c r="I152" s="4">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>30</v>
+      </c>
+      <c r="J152" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="12.75" customHeight="1">
+    <row r="153" spans="1:10" ht="12.75" customHeight="1">
       <c r="A153" t="s">
         <v>269</v>
       </c>
@@ -5564,23 +6640,27 @@
         <v>271</v>
       </c>
       <c r="D153" s="1">
-        <v>32</v>
-      </c>
-      <c r="E153" t="s">
+        <f>VLOOKUP(C153,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="E153" s="1">
+        <v>10</v>
+      </c>
+      <c r="F153" t="s">
         <v>272</v>
       </c>
-      <c r="F153">
-        <v>1</v>
-      </c>
       <c r="G153">
-        <v>27</v>
-      </c>
-      <c r="I153" s="4">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>27</v>
+      </c>
+      <c r="J153" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="12.75" customHeight="1">
+    <row r="154" spans="1:10" ht="12.75" customHeight="1">
       <c r="A154" t="s">
         <v>269</v>
       </c>
@@ -5591,23 +6671,27 @@
         <v>271</v>
       </c>
       <c r="D154" s="1">
-        <v>32</v>
-      </c>
-      <c r="E154" t="s">
+        <f>VLOOKUP(C154,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="E154" s="1">
+        <v>10</v>
+      </c>
+      <c r="F154" t="s">
         <v>273</v>
       </c>
-      <c r="F154">
-        <v>1</v>
-      </c>
       <c r="G154">
-        <v>40</v>
-      </c>
-      <c r="I154" s="4">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>40</v>
+      </c>
+      <c r="J154" s="4">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="12.75" customHeight="1">
+    <row r="155" spans="1:10" ht="12.75" customHeight="1">
       <c r="A155" t="s">
         <v>269</v>
       </c>
@@ -5618,23 +6702,27 @@
         <v>271</v>
       </c>
       <c r="D155" s="1">
-        <v>32</v>
-      </c>
-      <c r="E155" t="s">
+        <f>VLOOKUP(C155,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="E155" s="1">
+        <v>10</v>
+      </c>
+      <c r="F155" t="s">
         <v>274</v>
       </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
       <c r="G155">
-        <v>30</v>
-      </c>
-      <c r="I155" s="4">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>30</v>
+      </c>
+      <c r="J155" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="12.75" customHeight="1">
+    <row r="156" spans="1:10" ht="12.75" customHeight="1">
       <c r="A156" t="s">
         <v>269</v>
       </c>
@@ -5645,23 +6733,27 @@
         <v>271</v>
       </c>
       <c r="D156" s="1">
-        <v>32</v>
-      </c>
-      <c r="E156" t="s">
+        <f>VLOOKUP(C156,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="E156" s="1">
+        <v>10</v>
+      </c>
+      <c r="F156" t="s">
         <v>275</v>
       </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
       <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
         <v>20</v>
       </c>
-      <c r="I156" s="4">
+      <c r="J156" s="4">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="12.75" customHeight="1">
+    <row r="157" spans="1:10" ht="12.75" customHeight="1">
       <c r="A157" t="s">
         <v>276</v>
       </c>
@@ -5672,23 +6764,27 @@
         <v>278</v>
       </c>
       <c r="D157" s="1">
-        <v>33</v>
-      </c>
-      <c r="E157" t="s">
+        <f>VLOOKUP(C157,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E157" s="1">
+        <v>10</v>
+      </c>
+      <c r="F157" t="s">
         <v>279</v>
       </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
       <c r="G157">
-        <v>27</v>
-      </c>
-      <c r="I157" s="4">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>27</v>
+      </c>
+      <c r="J157" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="12.75" customHeight="1">
+    <row r="158" spans="1:10" ht="12.75" customHeight="1">
       <c r="A158" t="s">
         <v>276</v>
       </c>
@@ -5699,23 +6795,27 @@
         <v>278</v>
       </c>
       <c r="D158" s="1">
-        <v>33</v>
-      </c>
-      <c r="E158" t="s">
+        <f>VLOOKUP(C158,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E158" s="1">
+        <v>10</v>
+      </c>
+      <c r="F158" t="s">
         <v>280</v>
       </c>
-      <c r="F158">
-        <v>1</v>
-      </c>
       <c r="G158">
-        <v>40</v>
-      </c>
-      <c r="I158" s="4">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>40</v>
+      </c>
+      <c r="J158" s="4">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="12.75" customHeight="1">
+    <row r="159" spans="1:10" ht="12.75" customHeight="1">
       <c r="A159" t="s">
         <v>276</v>
       </c>
@@ -5726,23 +6826,27 @@
         <v>278</v>
       </c>
       <c r="D159" s="1">
-        <v>33</v>
-      </c>
-      <c r="E159" t="s">
+        <f>VLOOKUP(C159,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="E159" s="1">
+        <v>10</v>
+      </c>
+      <c r="F159" t="s">
         <v>281</v>
       </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
       <c r="G159">
-        <v>30</v>
-      </c>
-      <c r="I159" s="4">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>30</v>
+      </c>
+      <c r="J159" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="12.75" customHeight="1">
+    <row r="160" spans="1:10" ht="12.75" customHeight="1">
       <c r="A160" t="s">
         <v>282</v>
       </c>
@@ -5753,23 +6857,27 @@
         <v>284</v>
       </c>
       <c r="D160" s="1">
-        <v>34</v>
-      </c>
-      <c r="E160" t="s">
+        <f>VLOOKUP(C160,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="E160" s="1">
+        <v>10</v>
+      </c>
+      <c r="F160" t="s">
         <v>285</v>
       </c>
-      <c r="F160">
-        <v>1</v>
-      </c>
       <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
         <v>15</v>
       </c>
-      <c r="I160" s="4">
+      <c r="J160" s="4">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="12.75" customHeight="1">
+    <row r="161" spans="1:10" ht="12.75" customHeight="1">
       <c r="A161" t="s">
         <v>282</v>
       </c>
@@ -5780,23 +6888,27 @@
         <v>284</v>
       </c>
       <c r="D161" s="1">
-        <v>34</v>
-      </c>
-      <c r="E161" t="s">
+        <f>VLOOKUP(C161,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="E161" s="1">
+        <v>10</v>
+      </c>
+      <c r="F161" t="s">
         <v>286</v>
       </c>
-      <c r="F161">
-        <v>1</v>
-      </c>
       <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
         <v>25</v>
       </c>
-      <c r="I161" s="4">
+      <c r="J161" s="4">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="12.75" customHeight="1">
+    <row r="162" spans="1:10" ht="12.75" customHeight="1">
       <c r="A162" t="s">
         <v>282</v>
       </c>
@@ -5807,23 +6919,27 @@
         <v>284</v>
       </c>
       <c r="D162" s="1">
-        <v>34</v>
-      </c>
-      <c r="E162" t="s">
+        <f>VLOOKUP(C162,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="E162" s="1">
+        <v>10</v>
+      </c>
+      <c r="F162" t="s">
         <v>287</v>
       </c>
-      <c r="F162">
-        <v>1</v>
-      </c>
       <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
         <v>20</v>
       </c>
-      <c r="I162" s="4">
+      <c r="J162" s="4">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="12.75" customHeight="1">
+    <row r="163" spans="1:10" ht="12.75" customHeight="1">
       <c r="A163" t="s">
         <v>288</v>
       </c>
@@ -5834,23 +6950,27 @@
         <v>284</v>
       </c>
       <c r="D163" s="1">
-        <v>34</v>
-      </c>
-      <c r="E163" t="s">
+        <f>VLOOKUP(C163,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="E163" s="1">
+        <v>10</v>
+      </c>
+      <c r="F163" t="s">
         <v>289</v>
       </c>
-      <c r="F163">
-        <v>1</v>
-      </c>
       <c r="G163">
-        <v>27</v>
-      </c>
-      <c r="I163" s="4">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>27</v>
+      </c>
+      <c r="J163" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="12.75" customHeight="1">
+    <row r="164" spans="1:10" ht="12.75" customHeight="1">
       <c r="A164" t="s">
         <v>288</v>
       </c>
@@ -5861,23 +6981,27 @@
         <v>284</v>
       </c>
       <c r="D164" s="1">
-        <v>34</v>
-      </c>
-      <c r="E164" t="s">
+        <f>VLOOKUP(C164,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="E164" s="1">
+        <v>10</v>
+      </c>
+      <c r="F164" t="s">
         <v>290</v>
       </c>
-      <c r="F164">
-        <v>1</v>
-      </c>
       <c r="G164">
-        <v>40</v>
-      </c>
-      <c r="I164" s="4">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>40</v>
+      </c>
+      <c r="J164" s="4">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="12.75" customHeight="1">
+    <row r="165" spans="1:10" ht="12.75" customHeight="1">
       <c r="A165" t="s">
         <v>288</v>
       </c>
@@ -5888,23 +7012,27 @@
         <v>284</v>
       </c>
       <c r="D165" s="1">
-        <v>34</v>
-      </c>
-      <c r="E165" t="s">
+        <f>VLOOKUP(C165,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="E165" s="1">
+        <v>10</v>
+      </c>
+      <c r="F165" t="s">
         <v>291</v>
       </c>
-      <c r="F165">
-        <v>1</v>
-      </c>
       <c r="G165">
-        <v>30</v>
-      </c>
-      <c r="I165" s="4">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>30</v>
+      </c>
+      <c r="J165" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="12.75" customHeight="1">
+    <row r="166" spans="1:10" ht="12.75" customHeight="1">
       <c r="A166" t="s">
         <v>292</v>
       </c>
@@ -5915,23 +7043,27 @@
         <v>293</v>
       </c>
       <c r="D166" s="1">
-        <v>35</v>
-      </c>
-      <c r="E166" t="s">
+        <f>VLOOKUP(C166,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="E166" s="1">
+        <v>10</v>
+      </c>
+      <c r="F166" t="s">
         <v>294</v>
       </c>
-      <c r="F166">
-        <v>1</v>
-      </c>
       <c r="G166">
-        <v>27</v>
-      </c>
-      <c r="I166" s="4">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>27</v>
+      </c>
+      <c r="J166" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="12.75" customHeight="1">
+    <row r="167" spans="1:10" ht="12.75" customHeight="1">
       <c r="A167" t="s">
         <v>292</v>
       </c>
@@ -5942,23 +7074,27 @@
         <v>293</v>
       </c>
       <c r="D167" s="1">
-        <v>35</v>
-      </c>
-      <c r="E167" t="s">
+        <f>VLOOKUP(C167,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="E167" s="1">
+        <v>10</v>
+      </c>
+      <c r="F167" t="s">
         <v>295</v>
       </c>
-      <c r="F167">
-        <v>1</v>
-      </c>
       <c r="G167">
-        <v>40</v>
-      </c>
-      <c r="I167" s="4">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>40</v>
+      </c>
+      <c r="J167" s="4">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="12.75" customHeight="1">
+    <row r="168" spans="1:10" ht="12.75" customHeight="1">
       <c r="A168" t="s">
         <v>292</v>
       </c>
@@ -5969,23 +7105,27 @@
         <v>293</v>
       </c>
       <c r="D168" s="1">
-        <v>35</v>
-      </c>
-      <c r="E168" t="s">
+        <f>VLOOKUP(C168,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="E168" s="1">
+        <v>10</v>
+      </c>
+      <c r="F168" t="s">
         <v>296</v>
       </c>
-      <c r="F168">
-        <v>1</v>
-      </c>
       <c r="G168">
-        <v>30</v>
-      </c>
-      <c r="I168" s="4">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>30</v>
+      </c>
+      <c r="J168" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="12.75" customHeight="1">
+    <row r="169" spans="1:10" ht="12.75" customHeight="1">
       <c r="A169" t="s">
         <v>297</v>
       </c>
@@ -5996,23 +7136,27 @@
         <v>293</v>
       </c>
       <c r="D169" s="1">
-        <v>35</v>
-      </c>
-      <c r="E169" t="s">
+        <f>VLOOKUP(C169,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="E169" s="1">
+        <v>10</v>
+      </c>
+      <c r="F169" t="s">
         <v>298</v>
       </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
       <c r="G169">
-        <v>27</v>
-      </c>
-      <c r="I169" s="4">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>27</v>
+      </c>
+      <c r="J169" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="12.75" customHeight="1">
+    <row r="170" spans="1:10" ht="12.75" customHeight="1">
       <c r="A170" t="s">
         <v>297</v>
       </c>
@@ -6023,23 +7167,27 @@
         <v>293</v>
       </c>
       <c r="D170" s="1">
-        <v>35</v>
-      </c>
-      <c r="E170" t="s">
+        <f>VLOOKUP(C170,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="E170" s="1">
+        <v>10</v>
+      </c>
+      <c r="F170" t="s">
         <v>299</v>
       </c>
-      <c r="F170">
-        <v>1</v>
-      </c>
       <c r="G170">
-        <v>40</v>
-      </c>
-      <c r="I170" s="4">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>40</v>
+      </c>
+      <c r="J170" s="4">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="12.75" customHeight="1">
+    <row r="171" spans="1:10" ht="12.75" customHeight="1">
       <c r="A171" t="s">
         <v>297</v>
       </c>
@@ -6050,23 +7198,27 @@
         <v>293</v>
       </c>
       <c r="D171" s="1">
-        <v>35</v>
-      </c>
-      <c r="E171" t="s">
+        <f>VLOOKUP(C171,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="E171" s="1">
+        <v>10</v>
+      </c>
+      <c r="F171" t="s">
         <v>300</v>
       </c>
-      <c r="F171">
-        <v>1</v>
-      </c>
       <c r="G171">
-        <v>30</v>
-      </c>
-      <c r="I171" s="4">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>30</v>
+      </c>
+      <c r="J171" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="12.75" customHeight="1">
+    <row r="172" spans="1:10" ht="12.75" customHeight="1">
       <c r="A172" t="s">
         <v>301</v>
       </c>
@@ -6077,23 +7229,27 @@
         <v>303</v>
       </c>
       <c r="D172" s="1">
-        <v>36</v>
-      </c>
-      <c r="E172" t="s">
+        <f>VLOOKUP(C172,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E172" s="1">
+        <v>10</v>
+      </c>
+      <c r="F172" t="s">
         <v>304</v>
       </c>
-      <c r="F172">
+      <c r="G172">
         <v>0</v>
       </c>
-      <c r="G172">
-        <v>27</v>
-      </c>
-      <c r="I172" s="4">
+      <c r="H172">
+        <v>27</v>
+      </c>
+      <c r="J172" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="12.75" customHeight="1">
+    <row r="173" spans="1:10" ht="12.75" customHeight="1">
       <c r="A173" t="s">
         <v>301</v>
       </c>
@@ -6104,23 +7260,27 @@
         <v>303</v>
       </c>
       <c r="D173" s="1">
-        <v>36</v>
-      </c>
-      <c r="E173" t="s">
+        <f>VLOOKUP(C173,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E173" s="1">
+        <v>10</v>
+      </c>
+      <c r="F173" t="s">
         <v>305</v>
       </c>
-      <c r="F173">
-        <v>1</v>
-      </c>
       <c r="G173">
-        <v>40</v>
-      </c>
-      <c r="I173" s="4">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>40</v>
+      </c>
+      <c r="J173" s="4">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="12.75" customHeight="1">
+    <row r="174" spans="1:10" ht="12.75" customHeight="1">
       <c r="A174" t="s">
         <v>301</v>
       </c>
@@ -6131,23 +7291,27 @@
         <v>303</v>
       </c>
       <c r="D174" s="1">
-        <v>36</v>
-      </c>
-      <c r="E174" t="s">
+        <f>VLOOKUP(C174,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E174" s="1">
+        <v>10</v>
+      </c>
+      <c r="F174" t="s">
         <v>306</v>
       </c>
-      <c r="F174">
-        <v>1</v>
-      </c>
       <c r="G174">
-        <v>30</v>
-      </c>
-      <c r="I174" s="4">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>30</v>
+      </c>
+      <c r="J174" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="12.75" customHeight="1">
+    <row r="175" spans="1:10" ht="12.75" customHeight="1">
       <c r="A175" t="s">
         <v>307</v>
       </c>
@@ -6158,23 +7322,27 @@
         <v>303</v>
       </c>
       <c r="D175" s="1">
-        <v>36</v>
-      </c>
-      <c r="E175" t="s">
+        <f>VLOOKUP(C175,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E175" s="1">
+        <v>10</v>
+      </c>
+      <c r="F175" t="s">
         <v>308</v>
       </c>
-      <c r="F175">
-        <v>1</v>
-      </c>
       <c r="G175">
-        <v>27</v>
-      </c>
-      <c r="I175" s="4">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>27</v>
+      </c>
+      <c r="J175" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="12.75" customHeight="1">
+    <row r="176" spans="1:10" ht="12.75" customHeight="1">
       <c r="A176" t="s">
         <v>307</v>
       </c>
@@ -6185,23 +7353,27 @@
         <v>303</v>
       </c>
       <c r="D176" s="1">
-        <v>36</v>
-      </c>
-      <c r="E176" t="s">
+        <f>VLOOKUP(C176,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E176" s="1">
+        <v>10</v>
+      </c>
+      <c r="F176" t="s">
         <v>309</v>
       </c>
-      <c r="F176">
-        <v>1</v>
-      </c>
       <c r="G176">
-        <v>40</v>
-      </c>
-      <c r="I176" s="4">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>40</v>
+      </c>
+      <c r="J176" s="4">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="12.75" customHeight="1">
+    <row r="177" spans="1:10" ht="12.75" customHeight="1">
       <c r="A177" t="s">
         <v>307</v>
       </c>
@@ -6212,23 +7384,27 @@
         <v>303</v>
       </c>
       <c r="D177" s="1">
-        <v>36</v>
-      </c>
-      <c r="E177" t="s">
+        <f>VLOOKUP(C177,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="E177" s="1">
+        <v>10</v>
+      </c>
+      <c r="F177" t="s">
         <v>310</v>
       </c>
-      <c r="F177">
-        <v>1</v>
-      </c>
       <c r="G177">
-        <v>30</v>
-      </c>
-      <c r="I177" s="4">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>30</v>
+      </c>
+      <c r="J177" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="12.75" customHeight="1">
+    <row r="178" spans="1:10" ht="12.75" customHeight="1">
       <c r="A178" t="s">
         <v>311</v>
       </c>
@@ -6239,23 +7415,27 @@
         <v>313</v>
       </c>
       <c r="D178" s="1">
-        <v>37</v>
-      </c>
-      <c r="E178" t="s">
+        <f>VLOOKUP(C178,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="E178" s="1">
+        <v>10</v>
+      </c>
+      <c r="F178" t="s">
         <v>314</v>
       </c>
-      <c r="F178">
+      <c r="G178">
         <v>0</v>
       </c>
-      <c r="G178">
-        <v>27</v>
-      </c>
-      <c r="I178" s="4">
+      <c r="H178">
+        <v>27</v>
+      </c>
+      <c r="J178" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="12.75" customHeight="1">
+    <row r="179" spans="1:10" ht="12.75" customHeight="1">
       <c r="A179" t="s">
         <v>311</v>
       </c>
@@ -6266,23 +7446,27 @@
         <v>313</v>
       </c>
       <c r="D179" s="1">
-        <v>37</v>
-      </c>
-      <c r="E179" t="s">
+        <f>VLOOKUP(C179,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="E179" s="1">
+        <v>10</v>
+      </c>
+      <c r="F179" t="s">
         <v>315</v>
       </c>
-      <c r="F179">
-        <v>1</v>
-      </c>
       <c r="G179">
-        <v>40</v>
-      </c>
-      <c r="I179" s="4">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>40</v>
+      </c>
+      <c r="J179" s="4">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="12.75" customHeight="1">
+    <row r="180" spans="1:10" ht="12.75" customHeight="1">
       <c r="A180" t="s">
         <v>311</v>
       </c>
@@ -6293,23 +7477,27 @@
         <v>313</v>
       </c>
       <c r="D180" s="1">
-        <v>37</v>
-      </c>
-      <c r="E180" t="s">
+        <f>VLOOKUP(C180,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="E180" s="1">
+        <v>10</v>
+      </c>
+      <c r="F180" t="s">
         <v>316</v>
       </c>
-      <c r="F180">
-        <v>1</v>
-      </c>
       <c r="G180">
-        <v>30</v>
-      </c>
-      <c r="I180" s="4">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>30</v>
+      </c>
+      <c r="J180" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="12.75" customHeight="1">
+    <row r="181" spans="1:10" ht="12.75" customHeight="1">
       <c r="A181" t="s">
         <v>138</v>
       </c>
@@ -6320,23 +7508,27 @@
         <v>313</v>
       </c>
       <c r="D181" s="1">
-        <v>37</v>
-      </c>
-      <c r="E181" t="s">
+        <f>VLOOKUP(C181,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="E181" s="1">
+        <v>10</v>
+      </c>
+      <c r="F181" t="s">
         <v>317</v>
       </c>
-      <c r="F181">
+      <c r="G181">
         <v>0</v>
       </c>
-      <c r="G181">
-        <v>27</v>
-      </c>
-      <c r="I181" s="4">
+      <c r="H181">
+        <v>27</v>
+      </c>
+      <c r="J181" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="12.75" customHeight="1">
+    <row r="182" spans="1:10" ht="12.75" customHeight="1">
       <c r="A182" t="s">
         <v>138</v>
       </c>
@@ -6347,23 +7539,27 @@
         <v>313</v>
       </c>
       <c r="D182" s="1">
-        <v>37</v>
-      </c>
-      <c r="E182" t="s">
+        <f>VLOOKUP(C182,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="E182" s="1">
+        <v>10</v>
+      </c>
+      <c r="F182" t="s">
         <v>318</v>
       </c>
-      <c r="F182">
-        <v>1</v>
-      </c>
       <c r="G182">
-        <v>40</v>
-      </c>
-      <c r="I182" s="4">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>40</v>
+      </c>
+      <c r="J182" s="4">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="12.75" customHeight="1">
+    <row r="183" spans="1:10" ht="12.75" customHeight="1">
       <c r="A183" t="s">
         <v>138</v>
       </c>
@@ -6374,23 +7570,27 @@
         <v>313</v>
       </c>
       <c r="D183" s="1">
-        <v>37</v>
-      </c>
-      <c r="E183" t="s">
+        <f>VLOOKUP(C183,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="E183" s="1">
+        <v>10</v>
+      </c>
+      <c r="F183" t="s">
         <v>319</v>
       </c>
-      <c r="F183">
-        <v>1</v>
-      </c>
       <c r="G183">
-        <v>30</v>
-      </c>
-      <c r="I183" s="4">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>30</v>
+      </c>
+      <c r="J183" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="12.75" customHeight="1">
+    <row r="184" spans="1:10" ht="12.75" customHeight="1">
       <c r="A184" t="s">
         <v>320</v>
       </c>
@@ -6401,23 +7601,27 @@
         <v>322</v>
       </c>
       <c r="D184" s="1">
+        <f>VLOOKUP(C184,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>38</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="1">
+        <v>10</v>
+      </c>
+      <c r="F184" t="s">
         <v>323</v>
       </c>
-      <c r="F184">
-        <v>1</v>
-      </c>
       <c r="G184">
-        <v>27</v>
-      </c>
-      <c r="I184" s="4">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>27</v>
+      </c>
+      <c r="J184" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="12.75" customHeight="1">
+    <row r="185" spans="1:10" ht="12.75" customHeight="1">
       <c r="A185" t="s">
         <v>320</v>
       </c>
@@ -6428,23 +7632,27 @@
         <v>322</v>
       </c>
       <c r="D185" s="1">
+        <f>VLOOKUP(C185,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>38</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="1">
+        <v>10</v>
+      </c>
+      <c r="F185" t="s">
         <v>324</v>
       </c>
-      <c r="F185">
-        <v>1</v>
-      </c>
       <c r="G185">
-        <v>40</v>
-      </c>
-      <c r="I185" s="4">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>40</v>
+      </c>
+      <c r="J185" s="4">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="12.75" customHeight="1">
+    <row r="186" spans="1:10" ht="12.75" customHeight="1">
       <c r="A186" t="s">
         <v>320</v>
       </c>
@@ -6455,28 +7663,32 @@
         <v>322</v>
       </c>
       <c r="D186" s="1">
+        <f>VLOOKUP(C186,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
         <v>38</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="1">
+        <v>10</v>
+      </c>
+      <c r="F186" t="s">
         <v>325</v>
       </c>
-      <c r="F186">
-        <v>1</v>
-      </c>
       <c r="G186">
-        <v>30</v>
-      </c>
-      <c r="I186" s="4">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>30</v>
+      </c>
+      <c r="J186" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="12.75" customHeight="1">
-      <c r="H189" s="3" t="s">
+    <row r="189" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I189" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I189" s="3">
-        <f>SUM(I2:I186)</f>
+      <c r="J189" s="3">
+        <f>SUM(J2:J186)</f>
         <v>5306</v>
       </c>
     </row>
@@ -6488,885 +7700,1278 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D62" sqref="A1:D62"/>
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="1">
+        <f>VLOOKUP(C2,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>27</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" ref="J2:J7" si="0">G2*H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="1">
+        <f>VLOOKUP(C3,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="1">
+        <f>VLOOKUP(C4,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="1">
+        <f>VLOOKUP(C5,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>27</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="1">
+        <f>VLOOKUP(C6,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="1">
+        <f>VLOOKUP(C7,'Invoice ClientIds'!$B$2:$H$42,7,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I10" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J10" s="3">
+        <f>SUM(J2:J7)</f>
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.5" thickBot="1">
+    <row r="1" spans="1:8" ht="13.5" thickBot="1">
       <c r="A1" s="5" t="s">
-        <v>326</v>
+        <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1</v>
+        <v>407</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2767</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A2" s="7" t="s">
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="F3" s="12">
+        <v>2769</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2145</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2165</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="H5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2142</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2165</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="H7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2745</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="H8" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A3" s="7" t="s">
+      <c r="B9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2766</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="H9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2761</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F11" s="12">
+        <v>2763</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="H11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2077</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="H12" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B13" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="F13" s="12">
+        <v>2763</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H13" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B14" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2745</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H14" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="D3" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A4" s="7" t="s">
+      <c r="B15" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="F15" s="12">
+        <v>2148</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="H15" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F16" s="11">
+        <v>2145</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="H16" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F17" s="12">
+        <v>2138</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="H17" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2140</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="H18" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A5" s="7" t="s">
+      <c r="B19" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="F19" s="12">
+        <v>2763</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="H19" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="F20" s="11">
+        <v>2155</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="H20" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="F21" s="12">
+        <v>2763</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="H21" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="F22" s="11">
+        <v>2763</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="H22" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B23" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="F23" s="12">
+        <v>2763</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="H23" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="B24" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="F24" s="11">
+        <v>2153</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="H24" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="D5" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A6" s="7" t="s">
+      <c r="B25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="F25" s="12">
+        <v>2767</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="H25" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="F26" s="11">
+        <v>2769</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="H26" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="F27" s="12">
+        <v>2190</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="H27" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F28" s="11">
+        <v>2148</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="H28" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B29" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="F29" s="12">
+        <v>2165</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H29" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A7" s="7" t="s">
+      <c r="B30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2766</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="H30" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="F31" s="12">
+        <v>2761</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H31" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F32" s="11">
+        <v>2148</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="H32" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="F33" s="12">
+        <v>2150</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="H33" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="F34" s="11">
+        <v>2766</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="H34" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B35" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F35" s="12">
+        <v>2763</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H35" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="B36" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="F36" s="11">
+        <v>2120</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="H36" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
-      <c r="D7" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A26" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A27" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A28" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A29" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A30" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A31" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A32" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A33" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="B37" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="F37" s="12">
+        <v>2751</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H37" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D33" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A34" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" s="9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A35" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A36" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D36" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A37" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D37" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A38" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>191</v>
-      </c>
       <c r="C38" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A39" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A40" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A41" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A42" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D42" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A43" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D43" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A44" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D44" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D45" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A46" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D46" s="9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A47" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D47" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A48" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D48" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A49" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D49" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A50" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D50" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A51" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D51" s="9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A52" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D52" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A53" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D53" s="9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A54" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D54" s="9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A55" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D55" s="9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A56" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D56" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A57" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D57" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A58" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D58" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A59" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D59" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A60" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D60" s="9">
+        <v>402</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F38" s="11">
+        <v>2112</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="H38" s="7">
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A61" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D61" s="9">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A62" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C62" s="8" t="s">
+    <row r="39" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="D62" s="9">
+      <c r="C39" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="F39" s="12">
+        <v>2761</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H39" s="9">
         <v>38</v>
       </c>
     </row>
